--- a/Schedule Calculator Pro/bin/Debug/Вільні викладачі.xlsx
+++ b/Schedule Calculator Pro/bin/Debug/Вільні викладачі.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\SCP\Schedule Calculator Pro\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1125CE83-97D0-4301-9C69-8F32DBB53DC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{548C7171-A512-4596-BD03-8A5C515151D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="1980" windowWidth="21600" windowHeight="11505" xr2:uid="{B6974226-95A7-432A-B284-496008320173}"/>
+    <workbookView xWindow="2235" yWindow="2625" windowWidth="13995" windowHeight="11505" xr2:uid="{1E821544-0C0A-40AE-91C0-D5E33AC50442}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="69">
   <si>
     <t>Понеділок</t>
   </si>
@@ -63,6 +63,9 @@
     <t>Маланюк Н.П.</t>
   </si>
   <si>
+    <t>Міщанчук Н.О.</t>
+  </si>
+  <si>
     <t>Остапчук В.В.</t>
   </si>
   <si>
@@ -141,9 +144,6 @@
     <t>Кушнерчук Н.О.</t>
   </si>
   <si>
-    <t>Міщанчук Н.О.</t>
-  </si>
-  <si>
     <t>Паночишена А.В.</t>
   </si>
   <si>
@@ -153,6 +153,9 @@
     <t>Гуменюк О.М.</t>
   </si>
   <si>
+    <t>Дупелевич О.О.</t>
+  </si>
+  <si>
     <t>Зелінська О.А.</t>
   </si>
   <si>
@@ -168,7 +171,7 @@
     <t>Буханевич М.Й.</t>
   </si>
   <si>
-    <t>Дупелевич О.О.</t>
+    <t>Заболотний М.В.</t>
   </si>
   <si>
     <t>Камінська М.Б.</t>
@@ -214,9 +217,6 @@
   </si>
   <si>
     <t>Журавська К.О.</t>
-  </si>
-  <si>
-    <t>Заболотний М.В.</t>
   </si>
   <si>
     <t>Кочин І.В.</t>
@@ -786,7 +786,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0238920B-8C0B-4522-A478-330C1000797E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A957DDC-4976-4DB9-961D-2A29290F834B}">
   <dimension ref="A1:F300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -811,16 +811,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>38</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>64</v>
@@ -831,19 +831,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -851,19 +851,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>39</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -877,13 +877,13 @@
         <v>40</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -894,16 +894,16 @@
         <v>3</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>39</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -914,16 +914,16 @@
         <v>4</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -934,16 +934,16 @@
         <v>5</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -951,19 +951,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -974,16 +974,16 @@
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -994,16 +994,16 @@
         <v>9</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1011,19 +1011,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1031,19 +1031,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1057,7 +1057,7 @@
         <v>37</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>39</v>
@@ -1071,19 +1071,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1091,19 +1091,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>5</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1111,19 +1111,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1131,19 +1131,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1151,19 +1151,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1171,19 +1171,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1191,19 +1191,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1211,19 +1211,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>20</v>
-      </c>
       <c r="D22" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1231,10 +1231,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>21</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>37</v>
@@ -1251,13 +1251,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>22</v>
-      </c>
       <c r="D24" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>3</v>
@@ -1271,19 +1271,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="D25" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1291,19 +1291,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>24</v>
-      </c>
       <c r="D26" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1311,13 +1311,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>25</v>
-      </c>
       <c r="D27" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>4</v>
@@ -1331,13 +1331,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="D28" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>62</v>
@@ -1351,13 +1351,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="D29" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>5</v>
@@ -1371,19 +1371,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>28</v>
-      </c>
       <c r="D30" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1391,13 +1391,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="D31" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>6</v>
@@ -1407,17 +1407,17 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B32" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="D32" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>7</v>
@@ -1426,12 +1426,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="C33" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>8</v>
@@ -1440,9 +1443,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D34" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>9</v>
@@ -1451,20 +1454,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D35" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D36" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>63</v>
@@ -1473,31 +1476,31 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D37" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D38" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D39" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>37</v>
@@ -1506,184 +1509,184 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D40" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D41" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D42" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D43" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E44" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E45" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E46" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E47" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E48" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E49" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E50" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E51" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E52" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E53" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E54" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E55" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E56" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E57" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E58" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E59" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E60" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1697,250 +1700,250 @@
       <c r="F61" s="13"/>
     </row>
     <row r="62" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B62" s="7" t="s">
-        <v>32</v>
+      <c r="B62" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>38</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>33</v>
+      <c r="A63" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D64" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="E64" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C64" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C65" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C65" s="8" t="s">
-        <v>57</v>
-      </c>
       <c r="D65" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>45</v>
+      <c r="A66" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>39</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B67" s="8" t="s">
+      <c r="A67" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C67" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="D67" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D68" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D67" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="E68" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>2</v>
+      <c r="A69" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>3</v>
+      <c r="A70" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>47</v>
+      <c r="A71" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>3</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
+      <c r="A72" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B72" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
+      <c r="B73" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B73" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B74" s="8" t="s">
+      <c r="B74" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C74" s="8" t="s">
@@ -1957,170 +1960,170 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="B76" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C75" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
+      <c r="D77" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B76" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B77" s="8" t="s">
+      <c r="D79" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C80" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C77" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D77" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>11</v>
-      </c>
       <c r="D80" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>18</v>
+      <c r="A81" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>21</v>
+      <c r="A82" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="C82" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
+      <c r="A83" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="B83" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C83" s="8" t="s">
@@ -2137,14 +2140,14 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
+      <c r="A84" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B84" s="8" t="s">
+      <c r="B84" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>3</v>
@@ -2157,54 +2160,54 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
+      <c r="A85" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B85" s="8" t="s">
+      <c r="B85" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
+      <c r="A86" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B86" s="8" t="s">
+      <c r="B86" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="5" t="s">
+      <c r="A87" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B87" s="8" t="s">
+      <c r="B87" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>4</v>
@@ -2217,14 +2220,14 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="5" t="s">
+      <c r="A88" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B88" s="8" t="s">
+      <c r="B88" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D88" s="8" t="s">
         <v>5</v>
@@ -2237,17 +2240,17 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
+      <c r="A89" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B89" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B89" s="8" t="s">
+      <c r="C89" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C89" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="D89" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E89" s="5" t="s">
         <v>5</v>
@@ -2257,34 +2260,34 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="5" t="s">
+      <c r="A90" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B90" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B90" s="8" t="s">
+      <c r="C90" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>28</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="5" t="s">
+      <c r="A91" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B91" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B91" s="8" t="s">
+      <c r="C91" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="C91" s="8" t="s">
-        <v>29</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>7</v>
@@ -2297,14 +2300,14 @@
       </c>
     </row>
     <row r="92" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="6" t="s">
+      <c r="A92" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B92" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B92" s="9" t="s">
+      <c r="C92" s="8" t="s">
         <v>31</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>30</v>
       </c>
       <c r="D92" s="8" t="s">
         <v>8</v>
@@ -2317,8 +2320,11 @@
       </c>
     </row>
     <row r="93" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="C93" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>9</v>
@@ -2332,7 +2338,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D94" s="8" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E94" s="5" t="s">
         <v>9</v>
@@ -2346,15 +2352,15 @@
         <v>63</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D96" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E96" s="5" t="s">
         <v>63</v>
@@ -2365,13 +2371,13 @@
     </row>
     <row r="97" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D97" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="98" spans="4:6" x14ac:dyDescent="0.25">
@@ -2379,15 +2385,15 @@
         <v>37</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D99" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E99" s="5" t="s">
         <v>37</v>
@@ -2398,230 +2404,230 @@
     </row>
     <row r="100" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D100" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E100" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E100" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="F100" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D101" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E101" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E101" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="F101" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="102" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D102" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E102" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E102" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="F102" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="103" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D103" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E103" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E103" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="F103" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="104" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D104" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E104" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E104" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="F104" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D105" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E105" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E105" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="F105" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="106" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D106" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E106" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E106" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F106" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="107" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D107" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E107" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E107" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="F107" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="108" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D108" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E108" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E108" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="F108" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D109" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E109" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E109" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="F109" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="110" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D110" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E110" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E110" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="F110" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="111" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D111" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E111" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E111" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="F111" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="112" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D112" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E112" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E112" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="F112" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D113" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E113" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E113" s="5" t="s">
-        <v>24</v>
-      </c>
       <c r="F113" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D114" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E114" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E114" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="F114" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D115" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E115" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E115" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="F115" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D116" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E116" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E116" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="F116" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D117" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E117" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E117" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="F117" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D118" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E118" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E118" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="F118" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D119" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E119" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E119" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="F119" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E120" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2639,16 +2645,16 @@
         <v>1</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C122" s="7" t="s">
         <v>38</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F122" s="4" t="s">
         <v>64</v>
@@ -2656,82 +2662,82 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B125" s="5" t="s">
         <v>52</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -2739,119 +2745,119 @@
         <v>39</v>
       </c>
       <c r="B127" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D127" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C127" s="8" t="s">
+      <c r="E127" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D127" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E127" s="5" t="s">
-        <v>52</v>
-      </c>
       <c r="F127" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C128" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B128" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C128" s="8" t="s">
-        <v>57</v>
-      </c>
       <c r="D128" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="C129" s="8" t="s">
         <v>39</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B131" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D132" s="8" t="s">
         <v>39</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -2859,19 +2865,19 @@
         <v>2</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D133" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E133" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E133" s="5" t="s">
-        <v>57</v>
-      </c>
       <c r="F133" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -2879,13 +2885,13 @@
         <v>3</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E134" s="5" t="s">
         <v>39</v>
@@ -2896,42 +2902,42 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C135" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B135" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C135" s="8" t="s">
-        <v>46</v>
-      </c>
       <c r="D135" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="C136" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -2939,19 +2945,19 @@
         <v>4</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="C137" s="8" t="s">
         <v>3</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -2959,19 +2965,19 @@
         <v>6</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="C138" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -2979,27 +2985,27 @@
         <v>9</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D139" s="8" t="s">
         <v>2</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C140" s="8" t="s">
         <v>6</v>
@@ -3008,30 +3014,30 @@
         <v>3</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C141" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -3039,30 +3045,30 @@
         <v>37</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="C142" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B143" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C143" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="C143" s="8" t="s">
-        <v>10</v>
       </c>
       <c r="D143" s="8" t="s">
         <v>4</v>
@@ -3076,10 +3082,10 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="C144" s="8" t="s">
         <v>37</v>
@@ -3096,53 +3102,53 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D145" s="8" t="s">
         <v>5</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B147" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B147" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="C147" s="8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D147" s="8" t="s">
         <v>6</v>
@@ -3156,10 +3162,10 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C148" s="8" t="s">
         <v>25</v>
@@ -3176,13 +3182,13 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C149" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="B149" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C149" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="D149" s="8" t="s">
         <v>9</v>
@@ -3196,36 +3202,36 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C150" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D150" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E150" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E150" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="F150" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C151" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" s="5" t="s">
         <v>6</v>
@@ -3234,15 +3240,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C152" s="9" t="s">
         <v>31</v>
+      </c>
+      <c r="C152" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="D152" s="8" t="s">
         <v>37</v>
@@ -3256,13 +3262,16 @@
     </row>
     <row r="153" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="C153" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E153" s="5" t="s">
         <v>8</v>
@@ -3273,7 +3282,7 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D154" s="8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E154" s="5" t="s">
         <v>9</v>
@@ -3284,18 +3293,18 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D155" s="8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D156" s="8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E156" s="5" t="s">
         <v>63</v>
@@ -3306,29 +3315,29 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D157" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D158" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E158" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D159" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E159" s="5" t="s">
         <v>37</v>
@@ -3339,191 +3348,191 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D160" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="161" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D161" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F161" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="162" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D162" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F162" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="163" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D163" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F163" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="164" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D164" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F164" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="165" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D165" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="166" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D166" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F166" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="167" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E167" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F167" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="168" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E168" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F168" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="169" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E169" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F169" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="170" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E170" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F170" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="171" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E171" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F171" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="172" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E172" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F172" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="173" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E173" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F173" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="174" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E174" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F174" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="175" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E175" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F175" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="176" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E176" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F176" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E177" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F177" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E178" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F178" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E179" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F179" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E180" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F180" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3541,16 +3550,16 @@
         <v>1</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C182" s="7" t="s">
         <v>38</v>
       </c>
       <c r="D182" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F182" s="4" t="s">
         <v>64</v>
@@ -3558,182 +3567,182 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E183" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F183" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F184" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D185" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E185" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F185" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D186" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E186" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F186" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D187" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E187" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F187" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D188" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F188" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D189" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E189" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F189" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D190" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E190" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F190" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D191" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E191" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F191" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
@@ -3747,44 +3756,44 @@
         <v>39</v>
       </c>
       <c r="D192" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E192" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F192" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B193" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C193" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D193" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B193" s="8" t="s">
+      <c r="E193" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C193" s="8" t="s">
+      <c r="F193" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="D193" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E193" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F193" s="5" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D194" s="8" t="s">
         <v>39</v>
@@ -3798,82 +3807,82 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C195" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D195" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E195" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F195" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C196" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D196" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E196" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F196" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C197" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D197" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E197" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F197" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B198" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C198" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D198" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B198" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C198" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D198" s="8" t="s">
+      <c r="E198" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E198" s="5" t="s">
-        <v>60</v>
-      </c>
       <c r="F198" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
@@ -3887,18 +3896,18 @@
         <v>2</v>
       </c>
       <c r="D199" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E199" s="5" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="F199" s="5" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B200" s="8" t="s">
         <v>3</v>
@@ -3907,13 +3916,13 @@
         <v>3</v>
       </c>
       <c r="D200" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E200" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F200" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
@@ -3921,24 +3930,24 @@
         <v>4</v>
       </c>
       <c r="B201" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C201" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D201" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C201" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D201" s="8" t="s">
-        <v>46</v>
-      </c>
       <c r="E201" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F201" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B202" s="8" t="s">
         <v>4</v>
@@ -3950,10 +3959,10 @@
         <v>2</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F202" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
@@ -3964,7 +3973,7 @@
         <v>6</v>
       </c>
       <c r="C203" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D203" s="8" t="s">
         <v>3</v>
@@ -3981,13 +3990,13 @@
         <v>8</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C204" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D204" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E204" s="5" t="s">
         <v>3</v>
@@ -4001,27 +4010,27 @@
         <v>9</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C205" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D205" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E205" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E205" s="5" t="s">
-        <v>47</v>
-      </c>
       <c r="F205" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C206" s="8" t="s">
         <v>8</v>
@@ -4030,18 +4039,18 @@
         <v>4</v>
       </c>
       <c r="E206" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F206" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B207" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="B207" s="8" t="s">
-        <v>36</v>
       </c>
       <c r="C207" s="8" t="s">
         <v>9</v>
@@ -4058,13 +4067,13 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="C208" s="8" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="D208" s="8" t="s">
         <v>5</v>
@@ -4078,16 +4087,16 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C209" s="8" t="s">
         <v>63</v>
       </c>
       <c r="D209" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E209" s="5" t="s">
         <v>5</v>
@@ -4098,10 +4107,10 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C210" s="8" t="s">
         <v>37</v>
@@ -4110,18 +4119,18 @@
         <v>6</v>
       </c>
       <c r="E210" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F210" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C211" s="8" t="s">
         <v>13</v>
@@ -4136,15 +4145,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="212" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B212" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="B212" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="C212" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D212" s="8" t="s">
         <v>8</v>
@@ -4156,12 +4165,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
+      </c>
+      <c r="B213" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="C213" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D213" s="8" t="s">
         <v>9</v>
@@ -4175,13 +4187,13 @@
     </row>
     <row r="214" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C214" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D214" s="8" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E214" s="5" t="s">
         <v>9</v>
@@ -4190,23 +4202,26 @@
         <v>9</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C215" s="9" t="s">
-        <v>24</v>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C215" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="D215" s="8" t="s">
         <v>63</v>
       </c>
       <c r="E215" s="5" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="F215" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C216" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="D216" s="8" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="E216" s="5" t="s">
         <v>63</v>
@@ -4217,29 +4232,29 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D217" s="8" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E217" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F217" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D218" s="8" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="E218" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F218" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D219" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E219" s="5" t="s">
         <v>37</v>
@@ -4250,79 +4265,79 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D220" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E220" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F220" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D221" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E221" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F221" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D222" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E222" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F222" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D223" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E223" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F223" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D224" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E224" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F224" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="225" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D225" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E225" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F225" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="226" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D226" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E226" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F226" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="227" spans="4:6" x14ac:dyDescent="0.25">
@@ -4330,10 +4345,10 @@
         <v>24</v>
       </c>
       <c r="E227" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F227" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="228" spans="4:6" x14ac:dyDescent="0.25">
@@ -4341,10 +4356,10 @@
         <v>25</v>
       </c>
       <c r="E228" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F228" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="229" spans="4:6" x14ac:dyDescent="0.25">
@@ -4352,10 +4367,10 @@
         <v>26</v>
       </c>
       <c r="E229" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F229" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="230" spans="4:6" x14ac:dyDescent="0.25">
@@ -4363,10 +4378,10 @@
         <v>27</v>
       </c>
       <c r="E230" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F230" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="231" spans="4:6" x14ac:dyDescent="0.25">
@@ -4374,10 +4389,10 @@
         <v>28</v>
       </c>
       <c r="E231" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F231" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="232" spans="4:6" x14ac:dyDescent="0.25">
@@ -4385,80 +4400,80 @@
         <v>29</v>
       </c>
       <c r="E232" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F232" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="233" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D233" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E233" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F233" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="234" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D234" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E234" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F234" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="235" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E235" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F235" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="236" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E236" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F236" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="237" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E237" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F237" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="238" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E238" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F238" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="239" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E239" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F239" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="240" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E240" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F240" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="241" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4476,16 +4491,16 @@
         <v>1</v>
       </c>
       <c r="B242" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C242" s="7" t="s">
         <v>38</v>
       </c>
       <c r="D242" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E242" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F242" s="4" t="s">
         <v>64</v>
@@ -4493,202 +4508,202 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B243" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C243" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D243" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E243" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F243" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B244" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C244" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D244" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E244" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F244" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B245" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C245" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D245" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E245" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F245" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B246" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C246" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D246" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E246" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F246" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B247" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C247" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D247" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E247" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F247" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B248" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C248" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D248" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E248" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F248" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B249" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C249" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D249" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E249" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F249" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B250" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C250" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D250" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E250" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F250" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B251" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C251" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B251" s="8" t="s">
+      <c r="D251" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C251" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D251" s="5" t="s">
-        <v>55</v>
-      </c>
       <c r="E251" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F251" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B252" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C252" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B252" s="8" t="s">
+      <c r="D252" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C252" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D252" s="5" t="s">
-        <v>56</v>
-      </c>
       <c r="E252" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F252" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
@@ -4699,24 +4714,24 @@
         <v>39</v>
       </c>
       <c r="C253" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D253" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E253" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F253" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B254" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C254" s="8" t="s">
         <v>39</v>
@@ -4733,167 +4748,167 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B255" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C255" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B255" s="8" t="s">
+      <c r="D255" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C255" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D255" s="5" t="s">
-        <v>58</v>
-      </c>
       <c r="E255" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F255" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B256" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C256" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D256" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E256" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F256" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B257" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B257" s="8" t="s">
-        <v>60</v>
-      </c>
       <c r="C257" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D257" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E257" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F257" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="8" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B258" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C258" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C258" s="8" t="s">
-        <v>60</v>
-      </c>
       <c r="D258" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E258" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F258" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="8" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B259" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C259" s="8" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D259" s="5" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E259" s="5" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="F259" s="5" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="8" t="s">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="B260" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C260" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D260" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E260" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F260" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B261" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C261" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D261" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E261" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F261" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="8" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="B262" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C262" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D262" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E262" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F262" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="8" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="B263" s="8" t="s">
         <v>3</v>
@@ -4913,10 +4928,10 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B264" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="B264" s="8" t="s">
-        <v>47</v>
       </c>
       <c r="C264" s="8" t="s">
         <v>3</v>
@@ -4933,50 +4948,50 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="8" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="B265" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C265" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C265" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="D265" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E265" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F265" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="8" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="B266" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C266" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D266" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E266" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F266" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="8" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="B267" s="8" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="C267" s="8" t="s">
         <v>4</v>
@@ -4993,10 +5008,10 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B268" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="B268" s="8" t="s">
-        <v>35</v>
       </c>
       <c r="C268" s="8" t="s">
         <v>62</v>
@@ -5013,10 +5028,10 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B269" s="8" t="s">
         <v>8</v>
-      </c>
-      <c r="B269" s="8" t="s">
-        <v>6</v>
       </c>
       <c r="C269" s="8" t="s">
         <v>5</v>
@@ -5033,30 +5048,30 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B270" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B270" s="8" t="s">
-        <v>8</v>
-      </c>
       <c r="C270" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D270" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E270" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F270" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="8" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="B271" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C271" s="8" t="s">
         <v>6</v>
@@ -5073,10 +5088,10 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B272" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="B272" s="8" t="s">
-        <v>36</v>
       </c>
       <c r="C272" s="8" t="s">
         <v>7</v>
@@ -5093,10 +5108,10 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="8" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="B273" s="8" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="C273" s="8" t="s">
         <v>8</v>
@@ -5113,10 +5128,10 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B274" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="B274" s="8" t="s">
-        <v>10</v>
       </c>
       <c r="C274" s="8" t="s">
         <v>9</v>
@@ -5133,30 +5148,30 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B275" s="8" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C275" s="8" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="D275" s="5" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E275" s="5" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="F275" s="5" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B276" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C276" s="8" t="s">
         <v>63</v>
@@ -5173,53 +5188,53 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B277" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C277" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D277" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E277" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F277" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B278" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C278" s="8" t="s">
         <v>37</v>
       </c>
       <c r="D278" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E278" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F278" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B279" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C279" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D279" s="5" t="s">
         <v>37</v>
@@ -5231,271 +5246,262 @@
         <v>37</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A280" s="8" t="s">
-        <v>24</v>
+    <row r="280" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A280" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="B280" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C280" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D280" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D280" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="E280" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F280" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A281" s="9" t="s">
-        <v>28</v>
-      </c>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B281" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C281" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D281" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D281" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="E281" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F281" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="282" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B282" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C282" s="8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D282" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E282" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F282" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C283" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D283" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E283" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F283" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C284" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D284" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E284" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F284" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D285" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E285" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F285" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D286" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D283" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E283" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F283" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C284" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D284" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E284" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F284" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C285" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D285" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E285" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F285" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C286" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D286" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="E286" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F286" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D287" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E287" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F287" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D288" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E288" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F288" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="289" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D289" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E289" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F289" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="290" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D290" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E290" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F290" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="291" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D291" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E291" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F291" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="292" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D292" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E292" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F292" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="293" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D293" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E293" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F293" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="294" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D294" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E294" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F294" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="295" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D295" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E295" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F295" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="296" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D296" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E296" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F296" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="297" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D297" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E297" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F297" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="298" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D298" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E298" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F298" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="299" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D299" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E299" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F299" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="300" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D300" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E300" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F300" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -5507,6 +5513,6 @@
     <mergeCell ref="A241:F241"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Schedule Calculator Pro/bin/Debug/Вільні викладачі.xlsx
+++ b/Schedule Calculator Pro/bin/Debug/Вільні викладачі.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\SCP\Schedule Calculator Pro\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{548C7171-A512-4596-BD03-8A5C515151D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBFF99C3-048F-47D5-AE14-00ED42F894D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2235" yWindow="2625" windowWidth="13995" windowHeight="11505" xr2:uid="{1E821544-0C0A-40AE-91C0-D5E33AC50442}"/>
+    <workbookView xWindow="8100" yWindow="450" windowWidth="13995" windowHeight="11505" xr2:uid="{9B66845F-861D-419A-9437-8CA2E0E627C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -786,7 +786,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A957DDC-4976-4DB9-961D-2A29290F834B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{452BF015-1D86-4861-9904-097E98DAD093}">
   <dimension ref="A1:F300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Schedule Calculator Pro/bin/Debug/Вільні викладачі.xlsx
+++ b/Schedule Calculator Pro/bin/Debug/Вільні викладачі.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\SCP\Schedule Calculator Pro\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBFF99C3-048F-47D5-AE14-00ED42F894D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF55732C-12D8-4E07-A466-9887F12E115E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="450" windowWidth="13995" windowHeight="11505" xr2:uid="{9B66845F-861D-419A-9437-8CA2E0E627C3}"/>
+    <workbookView xWindow="8100" yWindow="450" windowWidth="13995" windowHeight="11505" xr2:uid="{6F0B035C-70F5-4A99-BEBA-F5330E2B9BAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -786,7 +786,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{452BF015-1D86-4861-9904-097E98DAD093}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{138080F0-04CB-4F75-BD45-16059895D7DC}">
   <dimension ref="A1:F300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Schedule Calculator Pro/bin/Debug/Вільні викладачі.xlsx
+++ b/Schedule Calculator Pro/bin/Debug/Вільні викладачі.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\SCP\Schedule Calculator Pro\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF55732C-12D8-4E07-A466-9887F12E115E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE34FE84-96B3-4A32-BB81-0B5331A96136}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="450" windowWidth="13995" windowHeight="11505" xr2:uid="{6F0B035C-70F5-4A99-BEBA-F5330E2B9BAD}"/>
+    <workbookView xWindow="8100" yWindow="450" windowWidth="13995" windowHeight="11505" xr2:uid="{8E7616D8-F236-413C-9F74-CEF24E7A798E}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -786,7 +786,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{138080F0-04CB-4F75-BD45-16059895D7DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69F5727A-CFD1-44DD-BDDE-A45B881ADDDC}">
   <dimension ref="A1:F300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Schedule Calculator Pro/bin/Debug/Вільні викладачі.xlsx
+++ b/Schedule Calculator Pro/bin/Debug/Вільні викладачі.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\SCP\Schedule Calculator Pro\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE34FE84-96B3-4A32-BB81-0B5331A96136}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D69F4B2F-1A0D-415C-8535-43C7ACE8EF72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="450" windowWidth="13995" windowHeight="11505" xr2:uid="{8E7616D8-F236-413C-9F74-CEF24E7A798E}"/>
+    <workbookView xWindow="8100" yWindow="450" windowWidth="13995" windowHeight="11505" xr2:uid="{6CC60E7C-5282-4EA2-913B-59131ED90CB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="69">
   <si>
     <t>Понеділок</t>
   </si>
@@ -57,93 +57,93 @@
     <t>Лісіцька Н.В.</t>
   </si>
   <si>
+    <t>Маланюк Н.П.</t>
+  </si>
+  <si>
+    <t>Міщанчук Н.О.</t>
+  </si>
+  <si>
+    <t>Остапчук В.В.</t>
+  </si>
+  <si>
+    <t>Петрова А.А.</t>
+  </si>
+  <si>
+    <t>Подлєсна К.А.</t>
+  </si>
+  <si>
+    <t>Приймак С.Л.</t>
+  </si>
+  <si>
+    <t>Пузіна О.С.</t>
+  </si>
+  <si>
+    <t>Рассохін О.О.</t>
+  </si>
+  <si>
+    <t>Римар Т.В.</t>
+  </si>
+  <si>
+    <t>Романішин В.В.</t>
+  </si>
+  <si>
+    <t>Рудик В.В.</t>
+  </si>
+  <si>
+    <t>Семенюк Л.М.</t>
+  </si>
+  <si>
+    <t>Сербин Г.Л.</t>
+  </si>
+  <si>
+    <t>Сорочиньска О.В.</t>
+  </si>
+  <si>
+    <t>Ставничий А.М.</t>
+  </si>
+  <si>
+    <t>Трач О.С.</t>
+  </si>
+  <si>
+    <t>Трифонова І.В.</t>
+  </si>
+  <si>
+    <t>Фуріхата Д.В.</t>
+  </si>
+  <si>
+    <t>Халіф О.Р.</t>
+  </si>
+  <si>
+    <t>Хливнюк М.Г.</t>
+  </si>
+  <si>
+    <t>Чижмотря О.Г.</t>
+  </si>
+  <si>
+    <t>Шевчик О.А.</t>
+  </si>
+  <si>
+    <t>Шуляр Т.М.</t>
+  </si>
+  <si>
+    <t>Шурпан М.М.</t>
+  </si>
+  <si>
+    <t>Друга пара</t>
+  </si>
+  <si>
+    <t>Білогор Л.А.</t>
+  </si>
+  <si>
+    <t>Камінська Л.Л.</t>
+  </si>
+  <si>
+    <t>Кушнерчук Н.О.</t>
+  </si>
+  <si>
     <t>Максименко М.О.</t>
   </si>
   <si>
-    <t>Маланюк Н.П.</t>
-  </si>
-  <si>
-    <t>Міщанчук Н.О.</t>
-  </si>
-  <si>
-    <t>Остапчук В.В.</t>
-  </si>
-  <si>
-    <t>Петрова А.А.</t>
-  </si>
-  <si>
-    <t>Подлєсна К.А.</t>
-  </si>
-  <si>
-    <t>Приймак С.Л.</t>
-  </si>
-  <si>
-    <t>Пузіна О.С.</t>
-  </si>
-  <si>
-    <t>Рассохін О.О.</t>
-  </si>
-  <si>
-    <t>Римар Т.В.</t>
-  </si>
-  <si>
-    <t>Романішин В.В.</t>
-  </si>
-  <si>
-    <t>Рудик В.В.</t>
-  </si>
-  <si>
-    <t>Семенюк Л.М.</t>
-  </si>
-  <si>
-    <t>Сербин Г.Л.</t>
-  </si>
-  <si>
-    <t>Сорочиньска О.В.</t>
-  </si>
-  <si>
-    <t>Ставничий А.М.</t>
-  </si>
-  <si>
-    <t>Трач О.С.</t>
-  </si>
-  <si>
-    <t>Трифонова І.В.</t>
-  </si>
-  <si>
-    <t>Фуріхата Д.В.</t>
-  </si>
-  <si>
-    <t>Халіф О.Р.</t>
-  </si>
-  <si>
-    <t>Хливнюк М.Г.</t>
-  </si>
-  <si>
-    <t>Чижмотря О.Г.</t>
-  </si>
-  <si>
-    <t>Шевчик О.А.</t>
-  </si>
-  <si>
-    <t>Шуляр Т.М.</t>
-  </si>
-  <si>
-    <t>Шурпан М.М.</t>
-  </si>
-  <si>
-    <t>Друга пара</t>
-  </si>
-  <si>
-    <t>Білогор Л.А.</t>
-  </si>
-  <si>
-    <t>Камінська Л.Л.</t>
-  </si>
-  <si>
-    <t>Кушнерчук Н.О.</t>
-  </si>
-  <si>
     <t>Паночишена А.В.</t>
   </si>
   <si>
@@ -159,76 +159,76 @@
     <t>Зелінська О.А.</t>
   </si>
   <si>
+    <t>Міщенко В.А.</t>
+  </si>
+  <si>
+    <t>Четверта пара</t>
+  </si>
+  <si>
+    <t>Бенедицький В.Б.</t>
+  </si>
+  <si>
+    <t>Буханевич М.Й.</t>
+  </si>
+  <si>
+    <t>Григор'єв М.Ю.</t>
+  </si>
+  <si>
+    <t>Заболотний М.В.</t>
+  </si>
+  <si>
+    <t>Козак Н.М.</t>
+  </si>
+  <si>
+    <t>Конишев В.С.</t>
+  </si>
+  <si>
+    <t>П'ята пара</t>
+  </si>
+  <si>
+    <t>Білоконь С.Ф.</t>
+  </si>
+  <si>
+    <t>Бондаренко О.П.</t>
+  </si>
+  <si>
+    <t>Варганова Д.О.</t>
+  </si>
+  <si>
+    <t>Веселянский Я.А.</t>
+  </si>
+  <si>
+    <t>Вольська Ю.В.</t>
+  </si>
+  <si>
+    <t>Гордійчук О.М.</t>
+  </si>
+  <si>
+    <t>Данильченко А.О.</t>
+  </si>
+  <si>
+    <t>Дишлева Т.І.</t>
+  </si>
+  <si>
+    <t>Журавська К.О.</t>
+  </si>
+  <si>
+    <t>Камінська М.Б.</t>
+  </si>
+  <si>
+    <t>Кочин І.В.</t>
+  </si>
+  <si>
     <t>Опанащук Ю.М.</t>
   </si>
   <si>
-    <t>Четверта пара</t>
-  </si>
-  <si>
-    <t>Бенедицький В.Б.</t>
-  </si>
-  <si>
-    <t>Буханевич М.Й.</t>
-  </si>
-  <si>
-    <t>Заболотний М.В.</t>
-  </si>
-  <si>
-    <t>Камінська М.Б.</t>
-  </si>
-  <si>
-    <t>Козак Н.М.</t>
-  </si>
-  <si>
-    <t>Конишев В.С.</t>
-  </si>
-  <si>
-    <t>П'ята пара</t>
+    <t>Шоста пара</t>
+  </si>
+  <si>
+    <t>Вівторок</t>
   </si>
   <si>
     <t>Антонова Л.І.</t>
-  </si>
-  <si>
-    <t>Білоконь С.Ф.</t>
-  </si>
-  <si>
-    <t>Бондаренко О.П.</t>
-  </si>
-  <si>
-    <t>Варганова Д.О.</t>
-  </si>
-  <si>
-    <t>Веселянский Я.А.</t>
-  </si>
-  <si>
-    <t>Вольська Ю.В.</t>
-  </si>
-  <si>
-    <t>Гордійчук О.М.</t>
-  </si>
-  <si>
-    <t>Григор'єв М.Ю.</t>
-  </si>
-  <si>
-    <t>Данильченко А.О.</t>
-  </si>
-  <si>
-    <t>Дишлева Т.І.</t>
-  </si>
-  <si>
-    <t>Журавська К.О.</t>
-  </si>
-  <si>
-    <t>Кочин І.В.</t>
-  </si>
-  <si>
-    <t>Міщенко В.А.</t>
-  </si>
-  <si>
-    <t>Шоста пара</t>
-  </si>
-  <si>
-    <t>Вівторок</t>
   </si>
   <si>
     <t>Середа</t>
@@ -786,8 +786,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69F5727A-CFD1-44DD-BDDE-A45B881ADDDC}">
-  <dimension ref="A1:F300"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A4B546-AD8F-46F0-AB4B-F9EA1EB1399A}">
+  <dimension ref="A1:F298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -810,8 +810,8 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>33</v>
+      <c r="B2" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>38</v>
@@ -823,54 +823,54 @@
         <v>50</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>34</v>
+      <c r="B3" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>44</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>35</v>
+      <c r="B4" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>39</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -880,24 +880,24 @@
         <v>45</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>41</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>52</v>
@@ -910,54 +910,54 @@
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>36</v>
+      <c r="B9" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>54</v>
@@ -970,14 +970,14 @@
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>8</v>
+      <c r="B10" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>55</v>
@@ -990,14 +990,14 @@
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>9</v>
+      <c r="B11" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>56</v>
@@ -1010,7 +1010,7 @@
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -1020,38 +1020,38 @@
         <v>2</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>11</v>
+      <c r="B13" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>48</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>37</v>
+      <c r="B14" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>37</v>
@@ -1060,198 +1060,198 @@
         <v>49</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>15</v>
-      </c>
       <c r="D16" s="8" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>22</v>
+      <c r="B22" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>23</v>
+      <c r="B23" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>24</v>
+      <c r="B24" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>23</v>
@@ -1260,18 +1260,18 @@
         <v>12</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>25</v>
+      <c r="B25" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>24</v>
@@ -1280,18 +1280,18 @@
         <v>13</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>26</v>
+      <c r="B26" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>25</v>
@@ -1300,18 +1300,18 @@
         <v>14</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>27</v>
+      <c r="B27" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>26</v>
@@ -1320,38 +1320,38 @@
         <v>15</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>28</v>
+      <c r="B28" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>27</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>29</v>
+      <c r="B29" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>28</v>
@@ -1360,18 +1360,18 @@
         <v>18</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>30</v>
+      <c r="B30" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>29</v>
@@ -1380,18 +1380,18 @@
         <v>19</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>31</v>
+      <c r="B31" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>30</v>
@@ -1400,39 +1400,33 @@
         <v>20</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="8" t="s">
+      <c r="B32" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="9" t="s">
         <v>31</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>32</v>
-      </c>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D33" s="8" t="s">
         <v>22</v>
       </c>
@@ -1443,7 +1437,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D34" s="8" t="s">
         <v>23</v>
       </c>
@@ -1454,62 +1448,62 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D35" s="8" t="s">
         <v>24</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D36" s="8" t="s">
         <v>25</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D37" s="8" t="s">
         <v>26</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D38" s="8" t="s">
         <v>27</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D39" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D40" s="8" t="s">
         <v>29</v>
       </c>
@@ -1520,7 +1514,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D41" s="8" t="s">
         <v>30</v>
       </c>
@@ -1531,8 +1525,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D42" s="8" t="s">
+    <row r="42" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D42" s="9" t="s">
         <v>31</v>
       </c>
       <c r="E42" s="5" t="s">
@@ -1542,10 +1536,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D43" s="9" t="s">
-        <v>32</v>
-      </c>
+    <row r="43" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E43" s="5" t="s">
         <v>15</v>
       </c>
@@ -1553,7 +1544,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E44" s="5" t="s">
         <v>16</v>
       </c>
@@ -1561,7 +1552,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E45" s="5" t="s">
         <v>17</v>
       </c>
@@ -1569,7 +1560,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E46" s="5" t="s">
         <v>18</v>
       </c>
@@ -1577,7 +1568,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E47" s="5" t="s">
         <v>19</v>
       </c>
@@ -1585,7 +1576,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E48" s="5" t="s">
         <v>20</v>
       </c>
@@ -1673,7 +1664,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E59" s="5" t="s">
         <v>31</v>
       </c>
@@ -1682,1047 +1673,1047 @@
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E60" s="5" t="s">
+      <c r="A60" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="13"/>
+    </row>
+    <row r="61" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B61" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F60" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="11" t="s">
+      <c r="C61" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D62" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="13"/>
-    </row>
-    <row r="62" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B62" s="4" t="s">
+      <c r="E62" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C63" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C62" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="8" t="s">
+      <c r="D63" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B65" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B66" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C63" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="8" t="s">
+      <c r="C66" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E66" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>35</v>
+      <c r="A67" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>2</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D67" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E67" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E67" s="5" t="s">
+      <c r="F67" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D68" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F67" s="5" t="s">
+      <c r="E68" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F68" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>3</v>
+      <c r="A69" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D69" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D69" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E69" s="5" t="s">
-        <v>54</v>
+      <c r="E69" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>48</v>
+      <c r="A70" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D70" s="8" t="s">
+      <c r="D70" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E70" s="5" t="s">
-        <v>55</v>
+      <c r="E70" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="F70" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="8" t="s">
+      <c r="A71" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" s="8" t="s">
         <v>4</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D71" s="8" t="s">
+      <c r="D71" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E71" s="5" t="s">
-        <v>56</v>
+      <c r="E71" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="F71" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>4</v>
+      <c r="A72" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D72" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>57</v>
+      <c r="D72" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>6</v>
+      <c r="A73" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D73" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>58</v>
+      <c r="D73" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="8" t="s">
+      <c r="A74" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B74" s="8" t="s">
         <v>8</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>7</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D74" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>39</v>
+      <c r="D74" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="8" t="s">
+      <c r="A75" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D75" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E76" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E75" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D76" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>60</v>
-      </c>
       <c r="F76" s="5" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>12</v>
+      <c r="A77" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D77" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>40</v>
+      <c r="D77" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="8" t="s">
+      <c r="A78" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B78" s="5" t="s">
-        <v>13</v>
+      <c r="B78" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D78" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E86" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E78" s="5" t="s">
+      <c r="F86" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F87" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F78" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D80" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D81" s="8" t="s">
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D88" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E81" s="5" t="s">
+      <c r="E88" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F81" s="5" t="s">
+      <c r="F88" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F89" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D82" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D84" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D85" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D86" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D87" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F87" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D88" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F88" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D89" s="8" t="s">
+    <row r="90" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D91" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E89" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F89" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D90" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E90" s="5" t="s">
+      <c r="E91" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F90" s="5" t="s">
+      <c r="F91" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D92" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F92" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C91" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D91" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F91" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D92" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F92" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C93" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D93" s="8" t="s">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D93" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E93" s="5" t="s">
-        <v>8</v>
+      <c r="E93" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="F93" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D94" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>9</v>
+      <c r="D94" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="F94" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D95" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E95" s="5" t="s">
+      <c r="D95" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E95" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D96" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F95" s="5" t="s">
+      <c r="E96" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D96" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E96" s="5" t="s">
-        <v>63</v>
-      </c>
       <c r="F96" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="97" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D97" s="8" t="s">
+      <c r="D97" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D98" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E97" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F97" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="98" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D98" s="8" t="s">
+      <c r="E98" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F98" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E98" s="5" t="s">
+    </row>
+    <row r="99" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D99" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F99" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F98" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="99" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D99" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E99" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F99" s="5" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="100" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D100" s="8" t="s">
+      <c r="D100" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E100" s="5" t="s">
-        <v>12</v>
+      <c r="E100" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="F100" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="101" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D101" s="8" t="s">
+      <c r="D101" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E101" s="5" t="s">
-        <v>13</v>
+      <c r="E101" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="F101" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="102" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D102" s="8" t="s">
+      <c r="D102" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E102" s="5" t="s">
-        <v>14</v>
+      <c r="E102" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="F102" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="103" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D103" s="8" t="s">
+      <c r="D103" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E103" s="5" t="s">
-        <v>15</v>
+      <c r="E103" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="F103" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="104" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D104" s="8" t="s">
+      <c r="D104" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E104" s="5" t="s">
-        <v>16</v>
+      <c r="E104" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="F104" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="105" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D105" s="8" t="s">
+      <c r="D105" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E105" s="5" t="s">
-        <v>17</v>
+      <c r="E105" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="F105" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="106" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D106" s="8" t="s">
+      <c r="D106" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E106" s="5" t="s">
-        <v>18</v>
+      <c r="E106" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="F106" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="107" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D107" s="8" t="s">
+      <c r="D107" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E107" s="5" t="s">
-        <v>19</v>
+      <c r="E107" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="F107" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="108" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D108" s="8" t="s">
+      <c r="D108" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E108" s="5" t="s">
-        <v>20</v>
+      <c r="E108" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="F108" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="109" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D109" s="8" t="s">
+      <c r="D109" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E109" s="5" t="s">
-        <v>21</v>
+      <c r="E109" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="F109" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="110" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D110" s="8" t="s">
+      <c r="D110" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E110" s="5" t="s">
-        <v>22</v>
+      <c r="E110" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="F110" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="111" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D111" s="8" t="s">
+      <c r="D111" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E111" s="5" t="s">
-        <v>23</v>
+      <c r="E111" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="F111" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="112" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D112" s="8" t="s">
+      <c r="D112" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E112" s="5" t="s">
-        <v>24</v>
+      <c r="E112" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F112" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D113" s="8" t="s">
+      <c r="D113" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E113" s="5" t="s">
-        <v>25</v>
+      <c r="E113" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F113" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D114" s="8" t="s">
+      <c r="D114" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E114" s="5" t="s">
-        <v>26</v>
+      <c r="E114" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="F114" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D115" s="8" t="s">
+      <c r="D115" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E115" s="5" t="s">
-        <v>27</v>
+      <c r="E115" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F115" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D116" s="8" t="s">
+      <c r="D116" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E116" s="5" t="s">
-        <v>28</v>
+      <c r="E116" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F116" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D117" s="8" t="s">
+      <c r="D117" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E117" s="5" t="s">
-        <v>29</v>
+      <c r="E117" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="F117" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D118" s="8" t="s">
+    <row r="118" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D118" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E118" s="5" t="s">
-        <v>30</v>
+      <c r="E118" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="F118" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D119" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E119" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="F119" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E120" s="5" t="s">
+      <c r="A120" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B120" s="12"/>
+      <c r="C120" s="12"/>
+      <c r="D120" s="12"/>
+      <c r="E120" s="12"/>
+      <c r="F120" s="13"/>
+    </row>
+    <row r="121" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B121" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F120" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B121" s="12"/>
-      <c r="C121" s="12"/>
-      <c r="D121" s="12"/>
-      <c r="E121" s="12"/>
-      <c r="F121" s="13"/>
-    </row>
-    <row r="122" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B122" s="4" t="s">
+      <c r="C121" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C122" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D122" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E122" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F122" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="B123" s="5" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D123" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B124" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E123" s="5" t="s">
+      <c r="C124" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F123" s="5" t="s">
+      <c r="D124" s="8" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C124" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D124" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="E124" s="5" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="5" t="s">
-        <v>54</v>
+      <c r="A125" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C125" s="8" t="s">
         <v>52</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="5" t="s">
-        <v>58</v>
+      <c r="A126" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="B126" s="5" t="s">
         <v>53</v>
@@ -2731,24 +2722,24 @@
         <v>45</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="5" t="s">
+      <c r="A127" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B127" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B127" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="C127" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D127" s="8" t="s">
         <v>53</v>
@@ -2761,572 +2752,557 @@
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="5" t="s">
-        <v>59</v>
+      <c r="A128" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="B128" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D128" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C128" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D128" s="8" t="s">
-        <v>45</v>
-      </c>
       <c r="E128" s="5" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="5" t="s">
+      <c r="A129" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B129" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="B129" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="C129" s="8" t="s">
         <v>39</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="5" t="s">
+      <c r="A130" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B130" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B130" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="C130" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="5" t="s">
-        <v>35</v>
+      <c r="A131" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C131" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F131" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B132" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="D131" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E131" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F131" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B132" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="C132" s="8" t="s">
         <v>40</v>
       </c>
       <c r="D132" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E132" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E132" s="5" t="s">
-        <v>57</v>
-      </c>
       <c r="F132" s="5" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="5" t="s">
+      <c r="A133" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B133" s="5" t="s">
         <v>2</v>
-      </c>
-      <c r="B133" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="C133" s="8" t="s">
         <v>41</v>
       </c>
       <c r="D133" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F133" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D134" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F134" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F135" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B136" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D136" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E136" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E133" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F133" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="5" t="s">
+      <c r="F136" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D137" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D138" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B134" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C134" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D134" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E134" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F134" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B135" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C135" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D135" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E135" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F135" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B136" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C136" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D136" s="8" t="s">
+      <c r="E138" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E136" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F136" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B137" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C137" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D137" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E137" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F137" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B138" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C138" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D138" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E138" s="5" t="s">
-        <v>61</v>
-      </c>
       <c r="F138" s="5" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="5" t="s">
-        <v>9</v>
+      <c r="A139" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="B139" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C139" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D139" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F139" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C140" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D139" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E139" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F139" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="5" t="s">
+      <c r="D140" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F140" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B140" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C140" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D140" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E140" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F140" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="B141" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D141" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E141" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F141" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F142" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B143" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E143" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E141" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F141" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B142" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C142" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D142" s="8" t="s">
+      <c r="F143" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D144" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E144" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E142" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F142" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B143" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C143" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D143" s="8" t="s">
+      <c r="F144" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D145" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E145" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E143" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F143" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B144" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C144" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D144" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E144" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F144" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B145" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C145" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D145" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E145" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="F145" s="5" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="5" t="s">
-        <v>24</v>
+      <c r="A146" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="B146" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D146" s="8" t="s">
         <v>36</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="5" t="s">
-        <v>25</v>
+      <c r="A147" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="B147" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C147" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C147" s="8" t="s">
-        <v>20</v>
-      </c>
       <c r="D147" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E147" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F147" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C148" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D148" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E148" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F148" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C149" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D149" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E149" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E147" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F147" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B148" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C148" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D148" s="8" t="s">
+      <c r="F149" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B150" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C150" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D150" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E150" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F150" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B151" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C151" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D151" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F151" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B152" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D152" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E152" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E148" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F148" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B149" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C149" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D149" s="8" t="s">
+      <c r="F152" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B153" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D153" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E153" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E149" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F149" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B150" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C150" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D150" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E150" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F150" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B151" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C151" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D151" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E151" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F151" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B152" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C152" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D152" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E152" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F152" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B153" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C153" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D153" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E153" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="F153" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D154" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E154" s="5" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D155" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E155" s="5" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D156" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E156" s="5" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D157" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E157" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D158" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E158" s="5" t="s">
         <v>11</v>
@@ -3337,232 +3313,250 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D159" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E159" s="5" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="F159" s="5" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D160" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E160" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="161" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D161" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E161" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F161" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="162" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D162" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E162" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F162" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="163" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D163" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F163" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="164" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D164" s="8" t="s">
-        <v>29</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="164" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D164" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F164" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="165" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D165" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="E165" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="166" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D166" s="9" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="166" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E166" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F166" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="167" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E167" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F167" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="168" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E168" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F168" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="169" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E169" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F169" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="170" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E170" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F170" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="171" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E171" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F171" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="172" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E172" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F172" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="173" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E173" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F173" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="174" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E174" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F174" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="175" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E175" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F175" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="176" spans="4:6" x14ac:dyDescent="0.25">
       <c r="E176" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F176" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E177" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F177" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E178" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F178" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E179" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F179" s="5" t="s">
-        <v>31</v>
-      </c>
+    </row>
+    <row r="179" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B179" s="12"/>
+      <c r="C179" s="12"/>
+      <c r="D179" s="12"/>
+      <c r="E179" s="12"/>
+      <c r="F179" s="13"/>
     </row>
     <row r="180" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E180" s="5" t="s">
+      <c r="A180" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B180" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F180" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B181" s="12"/>
-      <c r="C181" s="12"/>
-      <c r="D181" s="12"/>
-      <c r="E181" s="12"/>
-      <c r="F181" s="13"/>
-    </row>
-    <row r="182" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B182" s="7" t="s">
+      <c r="C180" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D180" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E180" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F180" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B181" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C181" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D181" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E181" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F181" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C182" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D182" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E182" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F182" s="4" t="s">
-        <v>64</v>
+      <c r="B182" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C182" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D182" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E182" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F182" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -3579,84 +3573,84 @@
         <v>51</v>
       </c>
       <c r="E183" s="5" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="F183" s="5" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F184" s="5" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D185" s="8" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="E185" s="5" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="F185" s="5" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D186" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E186" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F186" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D187" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E187" s="5" t="s">
         <v>53</v>
@@ -3667,62 +3661,62 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D188" s="8" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F188" s="5" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="D189" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E189" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F189" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D190" s="8" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E190" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F190" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
@@ -3736,213 +3730,213 @@
         <v>58</v>
       </c>
       <c r="D191" s="8" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="E191" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F191" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C192" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D192" s="8" t="s">
         <v>57</v>
       </c>
       <c r="E192" s="5" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="F192" s="5" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C193" s="8" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="D193" s="8" t="s">
         <v>58</v>
       </c>
       <c r="E193" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F193" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="D194" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E194" s="5" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="F194" s="5" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B195" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C195" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D195" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E195" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B195" s="8" t="s">
+      <c r="F195" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="C195" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D195" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E195" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F195" s="5" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B196" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C196" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D196" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B196" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C196" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D196" s="8" t="s">
-        <v>60</v>
-      </c>
       <c r="E196" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F196" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="C197" s="8" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="D197" s="8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E197" s="5" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F197" s="5" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C198" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D198" s="8" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="E198" s="5" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="F198" s="5" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B199" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C199" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D199" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C199" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D199" s="8" t="s">
-        <v>41</v>
-      </c>
       <c r="E199" s="5" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F199" s="5" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B200" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C200" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D200" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C200" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D200" s="8" t="s">
-        <v>35</v>
-      </c>
       <c r="E200" s="5" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="F200" s="5" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B201" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C201" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D201" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C201" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D201" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="E201" s="5" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="F201" s="5" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
@@ -3950,300 +3944,285 @@
         <v>36</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C202" s="8" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D202" s="8" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="E202" s="5" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="F202" s="5" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C203" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D203" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E203" s="5" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="F203" s="5" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B204" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C204" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B204" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C204" s="8" t="s">
-        <v>6</v>
-      </c>
       <c r="D204" s="8" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E204" s="5" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="F204" s="5" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B205" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C205" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B205" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C205" s="8" t="s">
-        <v>7</v>
-      </c>
       <c r="D205" s="8" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="E205" s="5" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="F205" s="5" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C206" s="8" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="D206" s="8" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="E206" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="F206" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C207" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D207" s="8" t="s">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="E207" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F207" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B208" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C208" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B208" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C208" s="8" t="s">
-        <v>10</v>
-      </c>
       <c r="D208" s="8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E208" s="5" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="F208" s="5" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C209" s="8" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="D209" s="8" t="s">
         <v>36</v>
       </c>
       <c r="E209" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F209" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C210" s="8" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D210" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E210" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F210" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B211" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C211" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D211" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E211" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F210" s="5" t="s">
+      <c r="F211" s="5" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A211" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B211" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C211" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D211" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E211" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F211" s="5" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C212" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D212" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E212" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F212" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C213" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D213" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E213" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F213" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C214" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="B212" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C212" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D212" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E212" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F212" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B213" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C213" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D213" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E213" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F213" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C214" s="8" t="s">
-        <v>19</v>
       </c>
       <c r="D214" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E214" s="5" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="F214" s="5" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C215" s="8" t="s">
-        <v>21</v>
-      </c>
       <c r="D215" s="8" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="E215" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F215" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D216" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E216" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F215" s="5" t="s">
+      <c r="F216" s="5" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C216" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D216" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E216" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F216" s="5" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D217" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E217" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F217" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D218" s="8" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E218" s="5" t="s">
         <v>11</v>
@@ -4254,256 +4233,271 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D219" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E219" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E219" s="5" t="s">
-        <v>37</v>
-      </c>
       <c r="F219" s="5" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D220" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E220" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E220" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="F220" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D221" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E221" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E221" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="F221" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D222" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E222" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F222" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D223" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E223" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F223" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D224" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E224" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F224" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D225" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E225" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F225" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D226" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E226" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E224" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F224" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="225" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D225" s="8" t="s">
+      <c r="F226" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D227" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E227" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E225" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F225" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="226" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D226" s="8" t="s">
+      <c r="F227" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D228" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E228" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E226" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F226" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="227" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D227" s="8" t="s">
+      <c r="F228" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D229" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E229" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F229" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D230" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E230" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F230" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D231" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E231" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E227" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F227" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="228" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D228" s="8" t="s">
+      <c r="F231" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E232" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E228" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F228" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="229" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D229" s="8" t="s">
+      <c r="F232" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E233" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E229" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F229" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="230" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D230" s="8" t="s">
+      <c r="F233" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E234" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E230" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F230" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="231" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D231" s="8" t="s">
+      <c r="F234" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E235" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E231" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F231" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="232" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D232" s="8" t="s">
+      <c r="F235" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E236" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E232" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F232" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="233" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D233" s="8" t="s">
+      <c r="F236" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E237" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F237" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E238" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E233" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F233" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="234" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D234" s="9" t="s">
+      <c r="F238" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B239" s="12"/>
+      <c r="C239" s="12"/>
+      <c r="D239" s="12"/>
+      <c r="E239" s="12"/>
+      <c r="F239" s="13"/>
+    </row>
+    <row r="240" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B240" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E234" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F234" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="235" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E235" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F235" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="236" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E236" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F236" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="237" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E237" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F237" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="238" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E238" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F238" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="239" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E239" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F239" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="240" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E240" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F240" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B241" s="12"/>
-      <c r="C241" s="12"/>
-      <c r="D241" s="12"/>
-      <c r="E241" s="12"/>
-      <c r="F241" s="13"/>
-    </row>
-    <row r="242" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B242" s="7" t="s">
+      <c r="C240" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D240" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E240" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F240" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B241" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C241" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D241" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E241" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F241" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C242" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D242" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E242" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F242" s="4" t="s">
-        <v>64</v>
+      <c r="B242" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C242" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D242" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E242" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F242" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
@@ -4517,84 +4511,84 @@
         <v>51</v>
       </c>
       <c r="D243" s="5" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="E243" s="5" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="F243" s="5" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="8" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B244" s="8" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C244" s="8" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D244" s="5" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E244" s="5" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F244" s="5" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="8" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B245" s="8" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C245" s="8" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D245" s="5" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="E245" s="5" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="F245" s="5" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B246" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C246" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D246" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E246" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F246" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B247" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C247" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D247" s="5" t="s">
         <v>53</v>
@@ -4608,62 +4602,62 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="8" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="B248" s="8" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C248" s="8" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D248" s="5" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E248" s="5" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F248" s="5" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="8" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B249" s="8" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C249" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D249" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E249" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F249" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="8" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="B250" s="8" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C250" s="8" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D250" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E250" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F250" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
@@ -4674,16 +4668,16 @@
         <v>57</v>
       </c>
       <c r="C251" s="8" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="D251" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E251" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F251" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
@@ -4697,358 +4691,358 @@
         <v>57</v>
       </c>
       <c r="D252" s="5" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="E252" s="5" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="F252" s="5" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B253" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C253" s="8" t="s">
         <v>58</v>
       </c>
       <c r="D253" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E253" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F253" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="8" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="B254" s="8" t="s">
         <v>59</v>
       </c>
       <c r="C254" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D254" s="5" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="E254" s="5" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="F254" s="5" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="8" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="B255" s="8" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C255" s="8" t="s">
         <v>59</v>
       </c>
       <c r="D255" s="5" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="E255" s="5" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="F255" s="5" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="8" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B256" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C256" s="8" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D256" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E256" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F256" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B257" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C257" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B257" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C257" s="8" t="s">
-        <v>40</v>
-      </c>
       <c r="D257" s="5" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E257" s="5" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F257" s="5" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="8" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="B258" s="8" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="C258" s="8" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="D258" s="5" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="E258" s="5" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="F258" s="5" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B259" s="8" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="C259" s="8" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="D259" s="5" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E259" s="5" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F259" s="5" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B260" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C260" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B260" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C260" s="8" t="s">
-        <v>41</v>
-      </c>
       <c r="D260" s="5" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="E260" s="5" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="F260" s="5" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B261" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C261" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B261" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C261" s="8" t="s">
-        <v>35</v>
-      </c>
       <c r="D261" s="5" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="E261" s="5" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="F261" s="5" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B262" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C262" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B262" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C262" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="D262" s="5" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="E262" s="5" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="F262" s="5" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B263" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B263" s="8" t="s">
-        <v>3</v>
-      </c>
       <c r="C263" s="8" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="D263" s="5" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="E263" s="5" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="F263" s="5" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="8" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="B264" s="8" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="C264" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D264" s="5" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="E264" s="5" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="F264" s="5" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="8" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="B265" s="8" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="C265" s="8" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="D265" s="5" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="E265" s="5" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="F265" s="5" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B266" s="8" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="C266" s="8" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="D266" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E266" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="F266" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="8" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="B267" s="8" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="C267" s="8" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="D267" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E267" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F267" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B268" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C268" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C268" s="8" t="s">
-        <v>62</v>
-      </c>
       <c r="D268" s="5" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="E268" s="5" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="F268" s="5" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="8" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="B269" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C269" s="8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D269" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E269" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F269" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B270" s="8" t="s">
         <v>9</v>
@@ -5057,164 +5051,158 @@
         <v>36</v>
       </c>
       <c r="D270" s="5" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="E270" s="5" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="F270" s="5" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="8" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="B271" s="8" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="C271" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D271" s="5" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="E271" s="5" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="F271" s="5" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B272" s="8" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="C272" s="8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D272" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E272" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F272" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B273" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B273" s="8" t="s">
-        <v>11</v>
-      </c>
       <c r="C273" s="8" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="D273" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E273" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F273" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="8" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B274" s="8" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C274" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D274" s="5" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="E274" s="5" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="F274" s="5" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="8" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B275" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C275" s="8" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="D275" s="5" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="E275" s="5" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="F275" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A276" s="8" t="s">
-        <v>14</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A276" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="B276" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C276" s="8" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="D276" s="5" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="E276" s="5" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="F276" s="5" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A277" s="8" t="s">
-        <v>19</v>
-      </c>
       <c r="B277" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C277" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D277" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E277" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F277" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A278" s="8" t="s">
-        <v>21</v>
-      </c>
       <c r="B278" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C278" s="8" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D278" s="5" t="s">
         <v>11</v>
@@ -5227,290 +5215,256 @@
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A279" s="8" t="s">
+      <c r="B279" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C279" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D279" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E279" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F279" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B280" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B279" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C279" s="8" t="s">
+      <c r="C280" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D280" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D279" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E279" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F279" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A280" s="9" t="s">
+      <c r="E280" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F280" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B281" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B280" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C280" s="8" t="s">
+      <c r="C281" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D281" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D280" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E280" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F280" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B281" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C281" s="8" t="s">
+      <c r="E281" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F281" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C282" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D282" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E282" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F282" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C283" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D283" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D281" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E281" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F281" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B282" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C282" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D282" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E282" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F282" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C283" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D283" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="E283" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F283" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C284" s="9" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D284" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E284" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F284" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D285" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E285" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F285" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D286" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E286" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F286" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D287" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E287" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F287" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D288" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E288" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F288" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="289" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D289" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E289" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F289" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="290" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D290" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E290" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F290" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="291" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D291" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E291" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F291" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="292" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D292" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E292" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F292" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="293" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D293" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E293" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F293" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="294" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D294" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E294" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F294" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="295" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D295" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E295" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F295" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="296" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D296" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E296" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F296" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="297" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D297" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E297" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F297" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="298" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D298" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E298" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F298" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="299" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D299" s="5" t="s">
+    </row>
+    <row r="298" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D298" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E299" s="5" t="s">
+      <c r="E298" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F299" s="5" t="s">
+      <c r="F298" s="6" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="300" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D300" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E300" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F300" s="6" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="A121:F121"/>
-    <mergeCell ref="A181:F181"/>
-    <mergeCell ref="A241:F241"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="A179:F179"/>
+    <mergeCell ref="A239:F239"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Schedule Calculator Pro/bin/Debug/Вільні викладачі.xlsx
+++ b/Schedule Calculator Pro/bin/Debug/Вільні викладачі.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\SCP\Schedule Calculator Pro\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D69F4B2F-1A0D-415C-8535-43C7ACE8EF72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F70D50A0-815D-4AFF-840A-A62C03DA1EE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="450" windowWidth="13995" windowHeight="11505" xr2:uid="{6CC60E7C-5282-4EA2-913B-59131ED90CB6}"/>
+    <workbookView xWindow="8100" yWindow="450" windowWidth="13995" windowHeight="11505" xr2:uid="{31A0FF25-CD8D-4D09-B450-D12BC9A31AF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -786,7 +786,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A4B546-AD8F-46F0-AB4B-F9EA1EB1399A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB18AF8A-EC9B-4147-A03D-FBB53D2DF614}">
   <dimension ref="A1:F298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Schedule Calculator Pro/bin/Debug/Вільні викладачі.xlsx
+++ b/Schedule Calculator Pro/bin/Debug/Вільні викладачі.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\SCP\Schedule Calculator Pro\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F70D50A0-815D-4AFF-840A-A62C03DA1EE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A89A663E-457C-4A73-89D1-DC298819B94A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="450" windowWidth="13995" windowHeight="11505" xr2:uid="{31A0FF25-CD8D-4D09-B450-D12BC9A31AF3}"/>
+    <workbookView xWindow="3900" yWindow="450" windowWidth="13995" windowHeight="11505" xr2:uid="{24F11055-90C6-486E-B117-1B5F4F355CC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -786,7 +786,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB18AF8A-EC9B-4147-A03D-FBB53D2DF614}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{665B0F51-58B6-4A18-9889-4FD82FA708E3}">
   <dimension ref="A1:F298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -3059,7 +3059,7 @@
         <v>11</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D143" s="8" t="s">
         <v>35</v>
@@ -3079,7 +3079,7 @@
         <v>12</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D144" s="8" t="s">
         <v>6</v>
@@ -3099,7 +3099,7 @@
         <v>15</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D145" s="8" t="s">
         <v>7</v>
@@ -3119,7 +3119,7 @@
         <v>21</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D146" s="8" t="s">
         <v>36</v>
@@ -3139,7 +3139,7 @@
         <v>22</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D147" s="8" t="s">
         <v>8</v>
@@ -3159,7 +3159,7 @@
         <v>23</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D148" s="8" t="s">
         <v>9</v>
@@ -3179,7 +3179,7 @@
         <v>24</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D149" s="8" t="s">
         <v>10</v>
@@ -3198,8 +3198,8 @@
       <c r="B150" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C150" s="8" t="s">
-        <v>29</v>
+      <c r="C150" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="D150" s="8" t="s">
         <v>37</v>
@@ -3211,12 +3211,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B151" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="C151" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="D151" s="8" t="s">
         <v>13</v>
@@ -3810,7 +3807,7 @@
         <v>60</v>
       </c>
       <c r="D195" s="8" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="E195" s="5" t="s">
         <v>40</v>
@@ -3830,7 +3827,7 @@
         <v>2</v>
       </c>
       <c r="D196" s="8" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E196" s="5" t="s">
         <v>59</v>
@@ -3850,7 +3847,7 @@
         <v>3</v>
       </c>
       <c r="D197" s="8" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E197" s="5" t="s">
         <v>47</v>
@@ -3870,7 +3867,7 @@
         <v>48</v>
       </c>
       <c r="D198" s="8" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="E198" s="5" t="s">
         <v>41</v>
@@ -3890,7 +3887,7 @@
         <v>4</v>
       </c>
       <c r="D199" s="8" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="E199" s="5" t="s">
         <v>34</v>
@@ -3910,7 +3907,7 @@
         <v>35</v>
       </c>
       <c r="D200" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E200" s="5" t="s">
         <v>60</v>
@@ -3930,7 +3927,7 @@
         <v>6</v>
       </c>
       <c r="D201" s="8" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="E201" s="5" t="s">
         <v>2</v>
@@ -3950,7 +3947,7 @@
         <v>7</v>
       </c>
       <c r="D202" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E202" s="5" t="s">
         <v>3</v>
@@ -3970,7 +3967,7 @@
         <v>36</v>
       </c>
       <c r="D203" s="8" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="E203" s="5" t="s">
         <v>48</v>
@@ -3990,7 +3987,7 @@
         <v>8</v>
       </c>
       <c r="D204" s="8" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="E204" s="5" t="s">
         <v>49</v>
@@ -4010,7 +4007,7 @@
         <v>9</v>
       </c>
       <c r="D205" s="8" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="E205" s="5" t="s">
         <v>4</v>
@@ -4030,7 +4027,7 @@
         <v>42</v>
       </c>
       <c r="D206" s="8" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="E206" s="5" t="s">
         <v>61</v>
@@ -4050,7 +4047,7 @@
         <v>10</v>
       </c>
       <c r="D207" s="8" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="E207" s="5" t="s">
         <v>5</v>
@@ -4070,7 +4067,7 @@
         <v>37</v>
       </c>
       <c r="D208" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E208" s="5" t="s">
         <v>35</v>
@@ -4084,13 +4081,13 @@
         <v>20</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C209" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D209" s="8" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="E209" s="5" t="s">
         <v>6</v>
@@ -4110,7 +4107,7 @@
         <v>15</v>
       </c>
       <c r="D210" s="8" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="E210" s="5" t="s">
         <v>7</v>
@@ -4130,7 +4127,7 @@
         <v>18</v>
       </c>
       <c r="D211" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E211" s="5" t="s">
         <v>36</v>
@@ -4147,7 +4144,7 @@
         <v>20</v>
       </c>
       <c r="D212" s="8" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="E212" s="5" t="s">
         <v>8</v>
@@ -4161,10 +4158,10 @@
         <v>29</v>
       </c>
       <c r="C213" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D213" s="8" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="E213" s="5" t="s">
         <v>9</v>
@@ -4173,9 +4170,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="214" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C214" s="9" t="s">
-        <v>28</v>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C214" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="D214" s="8" t="s">
         <v>10</v>
@@ -4187,7 +4184,10 @@
         <v>42</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C215" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="D215" s="8" t="s">
         <v>37</v>
       </c>
@@ -4288,7 +4288,7 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D224" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E224" s="5" t="s">
         <v>17</v>
@@ -4299,7 +4299,7 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D225" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E225" s="5" t="s">
         <v>18</v>
@@ -4310,7 +4310,7 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D226" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E226" s="5" t="s">
         <v>19</v>
@@ -4321,7 +4321,7 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D227" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E227" s="5" t="s">
         <v>20</v>
@@ -4332,7 +4332,7 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D228" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E228" s="5" t="s">
         <v>21</v>
@@ -4343,7 +4343,7 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D229" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E229" s="5" t="s">
         <v>22</v>
@@ -5160,9 +5160,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="276" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A276" s="9" t="s">
-        <v>28</v>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A276" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="B276" s="8" t="s">
         <v>13</v>
@@ -5180,7 +5180,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A277" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="B277" s="8" t="s">
         <v>15</v>
       </c>
@@ -5265,8 +5268,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C282" s="8" t="s">
+    <row r="282" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C282" s="9" t="s">
         <v>24</v>
       </c>
       <c r="D282" s="5" t="s">
@@ -5279,10 +5282,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="283" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C283" s="9" t="s">
-        <v>30</v>
-      </c>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D283" s="5" t="s">
         <v>16</v>
       </c>

--- a/Schedule Calculator Pro/bin/Debug/Вільні викладачі.xlsx
+++ b/Schedule Calculator Pro/bin/Debug/Вільні викладачі.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\SCP\Schedule Calculator Pro\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A89A663E-457C-4A73-89D1-DC298819B94A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{071FE171-93E1-4DC0-ACF2-D7B208D2951D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="450" windowWidth="13995" windowHeight="11505" xr2:uid="{24F11055-90C6-486E-B117-1B5F4F355CC8}"/>
+    <workbookView xWindow="7650" yWindow="1455" windowWidth="13995" windowHeight="11505" xr2:uid="{63426A73-4AF5-43F4-A128-2138C1A879C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="69">
   <si>
     <t>Понеділок</t>
   </si>
@@ -786,7 +786,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{665B0F51-58B6-4A18-9889-4FD82FA708E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D097CA3-CB88-40A2-850C-959767544AA4}">
   <dimension ref="A1:F298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -2050,7 +2050,7 @@
         <v>18</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D79" s="5" t="s">
         <v>41</v>
@@ -2070,7 +2070,7 @@
         <v>21</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>34</v>
@@ -2090,7 +2090,7 @@
         <v>22</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>60</v>
@@ -2110,7 +2110,7 @@
         <v>23</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D82" s="5" t="s">
         <v>2</v>
@@ -2130,7 +2130,7 @@
         <v>24</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D83" s="5" t="s">
         <v>3</v>
@@ -2150,7 +2150,7 @@
         <v>25</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D84" s="5" t="s">
         <v>48</v>
@@ -2170,7 +2170,7 @@
         <v>26</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D85" s="5" t="s">
         <v>49</v>
@@ -2190,7 +2190,7 @@
         <v>27</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D86" s="5" t="s">
         <v>4</v>
@@ -2210,7 +2210,7 @@
         <v>28</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>5</v>
@@ -2230,7 +2230,7 @@
         <v>29</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D88" s="5" t="s">
         <v>35</v>
@@ -2250,7 +2250,7 @@
         <v>30</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D89" s="5" t="s">
         <v>6</v>
@@ -2270,7 +2270,7 @@
         <v>31</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D90" s="5" t="s">
         <v>7</v>
@@ -2286,8 +2286,8 @@
       <c r="A91" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C91" s="9" t="s">
-        <v>31</v>
+      <c r="C91" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="D91" s="5" t="s">
         <v>36</v>
@@ -2299,7 +2299,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C92" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="D92" s="5" t="s">
         <v>8</v>
       </c>
@@ -3807,7 +3810,7 @@
         <v>60</v>
       </c>
       <c r="D195" s="8" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E195" s="5" t="s">
         <v>40</v>
@@ -3827,7 +3830,7 @@
         <v>2</v>
       </c>
       <c r="D196" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E196" s="5" t="s">
         <v>59</v>
@@ -3847,7 +3850,7 @@
         <v>3</v>
       </c>
       <c r="D197" s="8" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E197" s="5" t="s">
         <v>47</v>
@@ -3867,7 +3870,7 @@
         <v>48</v>
       </c>
       <c r="D198" s="8" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="E198" s="5" t="s">
         <v>41</v>
@@ -3887,7 +3890,7 @@
         <v>4</v>
       </c>
       <c r="D199" s="8" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="E199" s="5" t="s">
         <v>34</v>
@@ -3907,7 +3910,7 @@
         <v>35</v>
       </c>
       <c r="D200" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E200" s="5" t="s">
         <v>60</v>
@@ -3927,7 +3930,7 @@
         <v>6</v>
       </c>
       <c r="D201" s="8" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="E201" s="5" t="s">
         <v>2</v>
@@ -3944,10 +3947,10 @@
         <v>36</v>
       </c>
       <c r="C202" s="8" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D202" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E202" s="5" t="s">
         <v>3</v>
@@ -3964,10 +3967,10 @@
         <v>8</v>
       </c>
       <c r="C203" s="8" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D203" s="8" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="E203" s="5" t="s">
         <v>48</v>
@@ -3984,10 +3987,10 @@
         <v>9</v>
       </c>
       <c r="C204" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D204" s="8" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="E204" s="5" t="s">
         <v>49</v>
@@ -3998,16 +4001,16 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B205" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C205" s="8" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="D205" s="8" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="E205" s="5" t="s">
         <v>4</v>
@@ -4018,16 +4021,16 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="B206" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C206" s="8" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="D206" s="8" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="E206" s="5" t="s">
         <v>61</v>
@@ -4038,16 +4041,16 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B207" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C207" s="8" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="D207" s="8" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="E207" s="5" t="s">
         <v>5</v>
@@ -4058,16 +4061,16 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B208" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C208" s="8" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D208" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E208" s="5" t="s">
         <v>35</v>
@@ -4078,16 +4081,16 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C209" s="8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D209" s="8" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="E209" s="5" t="s">
         <v>6</v>
@@ -4096,18 +4099,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B210" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
+      </c>
+      <c r="B210" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="C210" s="8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D210" s="8" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="E210" s="5" t="s">
         <v>7</v>
@@ -4116,18 +4119,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="211" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B211" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C211" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D211" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E211" s="5" t="s">
         <v>36</v>
@@ -4141,10 +4141,10 @@
         <v>27</v>
       </c>
       <c r="C212" s="8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D212" s="8" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="E212" s="5" t="s">
         <v>8</v>
@@ -4157,11 +4157,11 @@
       <c r="A213" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C213" s="8" t="s">
-        <v>23</v>
+      <c r="C213" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="D213" s="8" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="E213" s="5" t="s">
         <v>9</v>
@@ -4171,9 +4171,6 @@
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C214" s="8" t="s">
-        <v>24</v>
-      </c>
       <c r="D214" s="8" t="s">
         <v>10</v>
       </c>
@@ -4184,10 +4181,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C215" s="9" t="s">
-        <v>26</v>
-      </c>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D215" s="8" t="s">
         <v>37</v>
       </c>
@@ -4200,7 +4194,7 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D216" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E216" s="5" t="s">
         <v>10</v>
@@ -4211,7 +4205,7 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D217" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E217" s="5" t="s">
         <v>37</v>
@@ -4222,7 +4216,7 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D218" s="8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E218" s="5" t="s">
         <v>11</v>
@@ -4233,7 +4227,7 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D219" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E219" s="5" t="s">
         <v>12</v>
@@ -4244,7 +4238,7 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D220" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E220" s="5" t="s">
         <v>13</v>
@@ -4255,7 +4249,7 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D221" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E221" s="5" t="s">
         <v>14</v>
@@ -4266,7 +4260,7 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D222" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E222" s="5" t="s">
         <v>15</v>
@@ -4277,7 +4271,7 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D223" s="8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E223" s="5" t="s">
         <v>16</v>
@@ -4343,7 +4337,7 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D229" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E229" s="5" t="s">
         <v>22</v>
@@ -4352,9 +4346,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D230" s="8" t="s">
-        <v>30</v>
+    <row r="230" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D230" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="E230" s="5" t="s">
         <v>23</v>
@@ -4363,10 +4357,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="231" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D231" s="9" t="s">
-        <v>31</v>
-      </c>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E231" s="5" t="s">
         <v>24</v>
       </c>
@@ -4922,7 +4913,7 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="8" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="B264" s="8" t="s">
         <v>61</v>
@@ -4942,7 +4933,7 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="8" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B265" s="8" t="s">
         <v>5</v>
@@ -4962,7 +4953,7 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B266" s="8" t="s">
         <v>35</v>
@@ -4982,7 +4973,7 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="8" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="B267" s="8" t="s">
         <v>6</v>
@@ -5002,7 +4993,7 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="8" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B268" s="8" t="s">
         <v>36</v>
@@ -5022,7 +5013,7 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="8" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="B269" s="8" t="s">
         <v>8</v>
@@ -5042,7 +5033,7 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="8" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="B270" s="8" t="s">
         <v>9</v>
@@ -5062,7 +5053,7 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B271" s="8" t="s">
         <v>42</v>
@@ -5082,7 +5073,7 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B272" s="8" t="s">
         <v>10</v>
@@ -5102,7 +5093,7 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B273" s="8" t="s">
         <v>37</v>
@@ -5122,10 +5113,10 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B274" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C274" s="8" t="s">
         <v>10</v>
@@ -5142,10 +5133,10 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B275" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C275" s="8" t="s">
         <v>37</v>
@@ -5162,10 +5153,10 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B276" s="8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C276" s="8" t="s">
         <v>11</v>
@@ -5180,12 +5171,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="277" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A277" s="9" t="s">
-        <v>28</v>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A277" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="B277" s="8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C277" s="8" t="s">
         <v>12</v>
@@ -5200,9 +5191,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A278" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="B278" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C278" s="8" t="s">
         <v>13</v>
@@ -5219,7 +5213,7 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B279" s="8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C279" s="8" t="s">
         <v>15</v>
@@ -5234,9 +5228,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B280" s="8" t="s">
-        <v>24</v>
+    <row r="280" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B280" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="C280" s="8" t="s">
         <v>18</v>
@@ -5251,10 +5245,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="281" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B281" s="9" t="s">
-        <v>25</v>
-      </c>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C281" s="8" t="s">
         <v>20</v>
       </c>
@@ -5268,8 +5259,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="282" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C282" s="9" t="s">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C282" s="8" t="s">
         <v>24</v>
       </c>
       <c r="D282" s="5" t="s">
@@ -5282,7 +5273,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C283" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="D283" s="5" t="s">
         <v>16</v>
       </c>

--- a/Schedule Calculator Pro/bin/Debug/Вільні викладачі.xlsx
+++ b/Schedule Calculator Pro/bin/Debug/Вільні викладачі.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\SCP\Schedule Calculator Pro\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{071FE171-93E1-4DC0-ACF2-D7B208D2951D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1394F14C-645C-40C7-AAB1-2F8B24F5A75F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7650" yWindow="1455" windowWidth="13995" windowHeight="11505" xr2:uid="{63426A73-4AF5-43F4-A128-2138C1A879C1}"/>
+    <workbookView xWindow="14475" yWindow="2805" windowWidth="13995" windowHeight="11505" xr2:uid="{82B1C489-7461-4445-9ABC-437334EC4F71}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -786,7 +786,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D097CA3-CB88-40A2-850C-959767544AA4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FAD72F2-4D37-416B-86AD-C67587C682D6}">
   <dimension ref="A1:F298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Schedule Calculator Pro/bin/Debug/Вільні викладачі.xlsx
+++ b/Schedule Calculator Pro/bin/Debug/Вільні викладачі.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\SCP\Schedule Calculator Pro\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1394F14C-645C-40C7-AAB1-2F8B24F5A75F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0311D5E-377F-4B1C-96D6-B521DEBA44C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14475" yWindow="2805" windowWidth="13995" windowHeight="11505" xr2:uid="{82B1C489-7461-4445-9ABC-437334EC4F71}"/>
+    <workbookView xWindow="14475" yWindow="2805" windowWidth="13995" windowHeight="11505" xr2:uid="{EBF85AA0-5543-4A4F-A240-0742753E80F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -786,7 +786,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FAD72F2-4D37-416B-86AD-C67587C682D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6F1C196-3424-4528-A521-3B76CEDE4A4F}">
   <dimension ref="A1:F298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Schedule Calculator Pro/bin/Debug/Вільні викладачі.xlsx
+++ b/Schedule Calculator Pro/bin/Debug/Вільні викладачі.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\SCP\Schedule Calculator Pro\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0311D5E-377F-4B1C-96D6-B521DEBA44C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{61AB5EFA-EE72-419A-AB8F-CCD1578335F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14475" yWindow="2805" windowWidth="13995" windowHeight="11505" xr2:uid="{EBF85AA0-5543-4A4F-A240-0742753E80F0}"/>
+    <workbookView xWindow="14475" yWindow="2805" windowWidth="13995" windowHeight="11505" xr2:uid="{AFD9AC42-F23F-4DC1-95D7-52ADF33435DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="73">
   <si>
     <t>Понеділок</t>
   </si>
@@ -129,6 +129,9 @@
     <t>Шурпан М.М.</t>
   </si>
   <si>
+    <t>Білоконь С.Ф./</t>
+  </si>
+  <si>
     <t>Друга пара</t>
   </si>
   <si>
@@ -144,24 +147,27 @@
     <t>Максименко М.О.</t>
   </si>
   <si>
+    <t>Третя пара</t>
+  </si>
+  <si>
+    <t>Гуменюк О.М.</t>
+  </si>
+  <si>
+    <t>Дупелевич О.О.</t>
+  </si>
+  <si>
+    <t>Зелінська О.А.</t>
+  </si>
+  <si>
+    <t>Міщенко В.А.</t>
+  </si>
+  <si>
+    <t>Опанащук Ю.М.</t>
+  </si>
+  <si>
     <t>Паночишена А.В.</t>
   </si>
   <si>
-    <t>Третя пара</t>
-  </si>
-  <si>
-    <t>Гуменюк О.М.</t>
-  </si>
-  <si>
-    <t>Дупелевич О.О.</t>
-  </si>
-  <si>
-    <t>Зелінська О.А.</t>
-  </si>
-  <si>
-    <t>Міщенко В.А.</t>
-  </si>
-  <si>
     <t>Четверта пара</t>
   </si>
   <si>
@@ -171,67 +177,73 @@
     <t>Буханевич М.Й.</t>
   </si>
   <si>
+    <t>Заболотний М.В.</t>
+  </si>
+  <si>
+    <t>Козак Н.М.</t>
+  </si>
+  <si>
+    <t>Конишев В.С.</t>
+  </si>
+  <si>
+    <t>Веселянский Я.А./</t>
+  </si>
+  <si>
+    <t>П'ята пара</t>
+  </si>
+  <si>
+    <t>Білоконь С.Ф.</t>
+  </si>
+  <si>
+    <t>Бондаренко О.П.</t>
+  </si>
+  <si>
+    <t>Варганова Д.О.</t>
+  </si>
+  <si>
+    <t>Вольська Ю.В.</t>
+  </si>
+  <si>
+    <t>Гордійчук О.М.</t>
+  </si>
+  <si>
     <t>Григор'єв М.Ю.</t>
   </si>
   <si>
-    <t>Заболотний М.В.</t>
-  </si>
-  <si>
-    <t>Козак Н.М.</t>
-  </si>
-  <si>
-    <t>Конишев В.С.</t>
-  </si>
-  <si>
-    <t>П'ята пара</t>
-  </si>
-  <si>
-    <t>Білоконь С.Ф.</t>
-  </si>
-  <si>
-    <t>Бондаренко О.П.</t>
-  </si>
-  <si>
-    <t>Варганова Д.О.</t>
+    <t>Данильченко А.О.</t>
+  </si>
+  <si>
+    <t>Дишлева Т.І.</t>
+  </si>
+  <si>
+    <t>Журавська К.О.</t>
+  </si>
+  <si>
+    <t>Камінська М.Б.</t>
+  </si>
+  <si>
+    <t>Кочин І.В.</t>
+  </si>
+  <si>
+    <t>Шоста пара</t>
   </si>
   <si>
     <t>Веселянский Я.А.</t>
   </si>
   <si>
-    <t>Вольська Ю.В.</t>
-  </si>
-  <si>
-    <t>Гордійчук О.М.</t>
-  </si>
-  <si>
-    <t>Данильченко А.О.</t>
-  </si>
-  <si>
-    <t>Дишлева Т.І.</t>
-  </si>
-  <si>
-    <t>Журавська К.О.</t>
-  </si>
-  <si>
-    <t>Камінська М.Б.</t>
-  </si>
-  <si>
-    <t>Кочин І.В.</t>
-  </si>
-  <si>
-    <t>Опанащук Ю.М.</t>
-  </si>
-  <si>
-    <t>Шоста пара</t>
-  </si>
-  <si>
     <t>Вівторок</t>
   </si>
   <si>
+    <t>Антонова Л.І./</t>
+  </si>
+  <si>
     <t>Антонова Л.І.</t>
   </si>
   <si>
     <t>Середа</t>
+  </si>
+  <si>
+    <t>Журавська К.О./</t>
   </si>
   <si>
     <t>Четвер</t>
@@ -786,7 +798,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6F1C196-3424-4528-A521-3B76CEDE4A4F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5817A8DB-66B6-4477-A484-EDB729722F5E}">
   <dimension ref="A1:F298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -811,19 +823,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>38</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -831,19 +843,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -851,19 +863,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>39</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -877,13 +889,13 @@
         <v>40</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -897,13 +909,13 @@
         <v>41</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>52</v>
+        <v>39</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -917,13 +929,13 @@
         <v>3</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -937,13 +949,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -951,19 +963,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>54</v>
+        <v>41</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -971,19 +983,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>55</v>
+        <v>35</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -994,16 +1006,16 @@
         <v>8</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>56</v>
+        <v>2</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1011,19 +1023,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>46</v>
+        <v>3</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1031,16 +1043,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>39</v>
+        <v>49</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>39</v>
@@ -1054,16 +1066,16 @@
         <v>12</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>57</v>
+        <v>50</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1079,11 +1091,11 @@
       <c r="D15" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>58</v>
+      <c r="E15" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1091,16 +1103,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>40</v>
@@ -1111,7 +1123,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>15</v>
@@ -1119,11 +1131,11 @@
       <c r="D17" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>59</v>
+      <c r="E17" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1131,7 +1143,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>16</v>
@@ -1139,11 +1151,11 @@
       <c r="D18" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>47</v>
+      <c r="E18" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1151,16 +1163,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>41</v>
@@ -1171,7 +1183,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>18</v>
@@ -1179,11 +1191,11 @@
       <c r="D20" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>34</v>
+      <c r="E20" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1191,7 +1203,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>19</v>
@@ -1199,11 +1211,11 @@
       <c r="D21" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>60</v>
+      <c r="E21" s="8" t="s">
+        <v>2</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1211,16 +1223,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>2</v>
+        <v>44</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>2</v>
@@ -1231,7 +1243,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>22</v>
@@ -1239,8 +1251,8 @@
       <c r="D23" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>3</v>
+      <c r="E23" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>3</v>
@@ -1251,7 +1263,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>23</v>
@@ -1259,11 +1271,11 @@
       <c r="D24" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>48</v>
+      <c r="E24" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1271,7 +1283,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>24</v>
@@ -1279,11 +1291,11 @@
       <c r="D25" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>49</v>
+      <c r="E25" s="8" t="s">
+        <v>4</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1291,7 +1303,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>25</v>
@@ -1299,8 +1311,8 @@
       <c r="D26" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>4</v>
+      <c r="E26" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>4</v>
@@ -1311,7 +1323,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>26</v>
@@ -1319,11 +1331,11 @@
       <c r="D27" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>61</v>
+      <c r="E27" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1331,16 +1343,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>27</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>5</v>
+        <v>16</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>5</v>
@@ -1351,19 +1363,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>35</v>
+        <v>17</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1371,16 +1383,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>6</v>
+        <v>18</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>6</v>
@@ -1391,290 +1403,305 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>7</v>
+        <v>19</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>31</v>
+      <c r="B32" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>31</v>
       </c>
       <c r="D32" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D33" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>8</v>
+      <c r="E33" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="D34" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>9</v>
+        <v>22</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D35" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>42</v>
+        <v>23</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D36" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D37" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E36" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D37" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>10</v>
+      <c r="E37" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D38" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D39" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E38" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D39" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>11</v>
+      <c r="E39" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D40" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>12</v>
+        <v>28</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D41" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>13</v>
+        <v>29</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D42" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>14</v>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D42" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E43" s="5" t="s">
-        <v>15</v>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D43" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E44" s="5" t="s">
-        <v>16</v>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D44" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E45" s="5" t="s">
-        <v>17</v>
+    <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D45" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E46" s="5" t="s">
-        <v>18</v>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E46" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E47" s="5" t="s">
-        <v>19</v>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E47" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E48" s="5" t="s">
-        <v>20</v>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E48" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E49" s="5" t="s">
-        <v>21</v>
+      <c r="E49" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E50" s="5" t="s">
-        <v>22</v>
+      <c r="E50" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E51" s="5" t="s">
-        <v>23</v>
+      <c r="E51" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E52" s="5" t="s">
-        <v>24</v>
+      <c r="E52" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F52" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E53" s="5" t="s">
-        <v>25</v>
+      <c r="E53" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E54" s="5" t="s">
-        <v>26</v>
+      <c r="E54" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="F54" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E55" s="5" t="s">
-        <v>27</v>
+      <c r="E55" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E56" s="5" t="s">
-        <v>28</v>
+      <c r="E56" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E57" s="5" t="s">
-        <v>29</v>
+      <c r="E57" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E58" s="5" t="s">
-        <v>30</v>
+    <row r="58" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E58" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E59" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="F59" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
@@ -1687,39 +1714,39 @@
         <v>1</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D61" s="4" t="s">
-        <v>43</v>
+      <c r="D61" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>65</v>
+        <v>46</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -1730,41 +1757,41 @@
         <v>39</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>44</v>
+        <v>34</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>33</v>
+        <v>58</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B65" s="8" t="s">
         <v>41</v>
@@ -1772,74 +1799,74 @@
       <c r="C65" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D65" s="5" t="s">
-        <v>51</v>
+      <c r="D65" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>52</v>
+        <v>41</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>45</v>
+        <v>35</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>53</v>
+        <v>62</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -1847,19 +1874,19 @@
         <v>4</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>54</v>
+        <v>2</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -1867,19 +1894,19 @@
         <v>5</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>55</v>
+        <v>3</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="E70" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F70" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -1890,53 +1917,53 @@
         <v>4</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>56</v>
+        <v>49</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="E72" s="8" t="s">
         <v>39</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B73" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>39</v>
+        <v>4</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>39</v>
@@ -1944,59 +1971,59 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>57</v>
+        <v>6</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>58</v>
+        <v>8</v>
+      </c>
+      <c r="D75" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="E75" s="8" t="s">
         <v>40</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>40</v>
+        <v>9</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>40</v>
@@ -2004,42 +2031,42 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>59</v>
+        <v>44</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B78" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>47</v>
+        <v>15</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="E78" s="8" t="s">
         <v>41</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2050,13 +2077,13 @@
         <v>18</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>41</v>
+        <v>17</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F79" s="5" t="s">
         <v>41</v>
@@ -2070,16 +2097,16 @@
         <v>21</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>34</v>
+        <v>18</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>2</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2090,16 +2117,16 @@
         <v>22</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>60</v>
+        <v>19</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="E81" s="8" t="s">
         <v>2</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2110,10 +2137,10 @@
         <v>23</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>2</v>
+        <v>21</v>
+      </c>
+      <c r="D82" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="E82" s="8" t="s">
         <v>3</v>
@@ -2130,13 +2157,13 @@
         <v>24</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>3</v>
+        <v>22</v>
+      </c>
+      <c r="D83" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F83" s="5" t="s">
         <v>3</v>
@@ -2150,16 +2177,16 @@
         <v>25</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>48</v>
+        <v>23</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>4</v>
       </c>
       <c r="E84" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F84" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2170,16 +2197,16 @@
         <v>26</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>49</v>
+        <v>24</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="E85" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -2190,13 +2217,13 @@
         <v>27</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>4</v>
+        <v>25</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F86" s="5" t="s">
         <v>4</v>
@@ -2212,14 +2239,14 @@
       <c r="C87" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D87" s="5" t="s">
-        <v>5</v>
+      <c r="D87" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="E87" s="8" t="s">
         <v>5</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -2232,11 +2259,11 @@
       <c r="C88" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D88" s="5" t="s">
-        <v>35</v>
+      <c r="D88" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F88" s="5" t="s">
         <v>5</v>
@@ -2252,14 +2279,14 @@
       <c r="C89" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D89" s="5" t="s">
-        <v>6</v>
+      <c r="D89" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="E89" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2272,8 +2299,8 @@
       <c r="C90" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D90" s="5" t="s">
-        <v>7</v>
+      <c r="D90" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="E90" s="8" t="s">
         <v>7</v>
@@ -2289,33 +2316,36 @@
       <c r="C91" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D91" s="5" t="s">
-        <v>36</v>
+      <c r="D91" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F91" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C92" s="9" t="s">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C92" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D92" s="5" t="s">
-        <v>8</v>
+      <c r="D92" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="E92" s="8" t="s">
         <v>8</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D93" s="5" t="s">
-        <v>9</v>
+      <c r="C93" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="E93" s="8" t="s">
         <v>9</v>
@@ -2324,9 +2354,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D94" s="5" t="s">
-        <v>42</v>
+    <row r="94" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C94" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="E94" s="8" t="s">
         <v>42</v>
@@ -2336,52 +2369,52 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D95" s="5" t="s">
-        <v>62</v>
+      <c r="D95" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="F95" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D96" s="5" t="s">
-        <v>10</v>
+      <c r="D96" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="E96" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
     </row>
     <row r="97" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D97" s="5" t="s">
-        <v>37</v>
+      <c r="D97" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F97" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="98" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D98" s="5" t="s">
-        <v>11</v>
+      <c r="D98" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="E98" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="99" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D99" s="5" t="s">
-        <v>12</v>
+      <c r="D99" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="E99" s="8" t="s">
         <v>12</v>
@@ -2391,8 +2424,8 @@
       </c>
     </row>
     <row r="100" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D100" s="5" t="s">
-        <v>13</v>
+      <c r="D100" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="E100" s="8" t="s">
         <v>13</v>
@@ -2402,8 +2435,8 @@
       </c>
     </row>
     <row r="101" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D101" s="5" t="s">
-        <v>14</v>
+      <c r="D101" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="E101" s="8" t="s">
         <v>14</v>
@@ -2413,8 +2446,8 @@
       </c>
     </row>
     <row r="102" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D102" s="5" t="s">
-        <v>15</v>
+      <c r="D102" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="E102" s="8" t="s">
         <v>15</v>
@@ -2424,8 +2457,8 @@
       </c>
     </row>
     <row r="103" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D103" s="5" t="s">
-        <v>16</v>
+      <c r="D103" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="E103" s="8" t="s">
         <v>16</v>
@@ -2435,8 +2468,8 @@
       </c>
     </row>
     <row r="104" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D104" s="5" t="s">
-        <v>17</v>
+      <c r="D104" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="E104" s="8" t="s">
         <v>17</v>
@@ -2446,8 +2479,8 @@
       </c>
     </row>
     <row r="105" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D105" s="5" t="s">
-        <v>18</v>
+      <c r="D105" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="E105" s="8" t="s">
         <v>18</v>
@@ -2457,8 +2490,8 @@
       </c>
     </row>
     <row r="106" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D106" s="5" t="s">
-        <v>19</v>
+      <c r="D106" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="E106" s="8" t="s">
         <v>19</v>
@@ -2468,8 +2501,8 @@
       </c>
     </row>
     <row r="107" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D107" s="5" t="s">
-        <v>20</v>
+      <c r="D107" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="E107" s="8" t="s">
         <v>20</v>
@@ -2479,8 +2512,8 @@
       </c>
     </row>
     <row r="108" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D108" s="5" t="s">
-        <v>21</v>
+      <c r="D108" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="E108" s="8" t="s">
         <v>21</v>
@@ -2490,8 +2523,8 @@
       </c>
     </row>
     <row r="109" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D109" s="5" t="s">
-        <v>22</v>
+      <c r="D109" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="E109" s="8" t="s">
         <v>22</v>
@@ -2501,8 +2534,8 @@
       </c>
     </row>
     <row r="110" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D110" s="5" t="s">
-        <v>23</v>
+      <c r="D110" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="E110" s="8" t="s">
         <v>23</v>
@@ -2512,8 +2545,8 @@
       </c>
     </row>
     <row r="111" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D111" s="5" t="s">
-        <v>24</v>
+      <c r="D111" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="E111" s="8" t="s">
         <v>24</v>
@@ -2523,8 +2556,8 @@
       </c>
     </row>
     <row r="112" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D112" s="5" t="s">
-        <v>25</v>
+      <c r="D112" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="E112" s="8" t="s">
         <v>25</v>
@@ -2534,8 +2567,8 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D113" s="5" t="s">
-        <v>26</v>
+      <c r="D113" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="E113" s="8" t="s">
         <v>26</v>
@@ -2545,8 +2578,8 @@
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D114" s="5" t="s">
-        <v>27</v>
+      <c r="D114" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="E114" s="8" t="s">
         <v>27</v>
@@ -2556,8 +2589,8 @@
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D115" s="5" t="s">
-        <v>28</v>
+      <c r="D115" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="E115" s="8" t="s">
         <v>28</v>
@@ -2566,9 +2599,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D116" s="5" t="s">
-        <v>29</v>
+    <row r="116" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D116" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="E116" s="8" t="s">
         <v>29</v>
@@ -2578,9 +2611,6 @@
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D117" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="E117" s="8" t="s">
         <v>30</v>
       </c>
@@ -2589,9 +2619,6 @@
       </c>
     </row>
     <row r="118" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D118" s="6" t="s">
-        <v>31</v>
-      </c>
       <c r="E118" s="9" t="s">
         <v>31</v>
       </c>
@@ -2606,7 +2633,7 @@
     </row>
     <row r="120" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B120" s="12"/>
       <c r="C120" s="12"/>
@@ -2619,99 +2646,99 @@
         <v>1</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C121" s="7" t="s">
         <v>38</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E121" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
+      </c>
+      <c r="E121" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E122" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="E122" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E123" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="E123" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E124" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="E124" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E125" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="E125" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -2719,39 +2746,39 @@
         <v>39</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E126" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="E126" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B127" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E127" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
+      </c>
+      <c r="E127" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -2759,19 +2786,19 @@
         <v>40</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E128" s="5" t="s">
-        <v>54</v>
+        <v>65</v>
+      </c>
+      <c r="E128" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -2782,56 +2809,56 @@
         <v>40</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E129" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
+      </c>
+      <c r="E129" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B130" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D130" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E130" s="5" t="s">
-        <v>56</v>
+      <c r="E130" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C131" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E131" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D131" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E131" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="F131" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -2839,15 +2866,15 @@
         <v>2</v>
       </c>
       <c r="B132" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C132" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C132" s="8" t="s">
-        <v>40</v>
-      </c>
       <c r="D132" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E132" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E132" s="8" t="s">
         <v>39</v>
       </c>
       <c r="F132" s="5" t="s">
@@ -2862,52 +2889,52 @@
         <v>2</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D133" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E133" s="5" t="s">
-        <v>57</v>
+      <c r="E133" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B134" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D134" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E134" s="5" t="s">
-        <v>58</v>
+      <c r="E134" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B135" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B135" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="C135" s="8" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E135" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E135" s="8" t="s">
         <v>40</v>
       </c>
       <c r="F135" s="5" t="s">
@@ -2919,19 +2946,19 @@
         <v>4</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E136" s="5" t="s">
-        <v>59</v>
+        <v>62</v>
+      </c>
+      <c r="E136" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -2939,35 +2966,35 @@
         <v>6</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D137" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E137" s="5" t="s">
-        <v>47</v>
+      <c r="E137" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B138" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B138" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="C138" s="8" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="D138" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E138" s="5" t="s">
+      <c r="E138" s="8" t="s">
         <v>41</v>
       </c>
       <c r="F138" s="5" t="s">
@@ -2979,19 +3006,19 @@
         <v>8</v>
       </c>
       <c r="B139" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C139" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C139" s="8" t="s">
-        <v>6</v>
-      </c>
       <c r="D139" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E139" s="5" t="s">
-        <v>34</v>
+        <v>49</v>
+      </c>
+      <c r="E139" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -2999,19 +3026,19 @@
         <v>9</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E140" s="5" t="s">
-        <v>60</v>
+        <v>50</v>
+      </c>
+      <c r="E140" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -3019,15 +3046,15 @@
         <v>10</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="D141" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E141" s="5" t="s">
+      <c r="E141" s="8" t="s">
         <v>2</v>
       </c>
       <c r="F141" s="5" t="s">
@@ -3036,18 +3063,18 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="8" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="D142" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E142" s="5" t="s">
+      <c r="E142" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F142" s="5" t="s">
@@ -3056,22 +3083,22 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E143" s="5" t="s">
-        <v>48</v>
+        <v>36</v>
+      </c>
+      <c r="E143" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -3082,16 +3109,16 @@
         <v>12</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D144" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E144" s="5" t="s">
-        <v>49</v>
+      <c r="E144" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -3102,12 +3129,12 @@
         <v>15</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D145" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E145" s="5" t="s">
+      <c r="E145" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F145" s="5" t="s">
@@ -3116,22 +3143,22 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E146" s="5" t="s">
-        <v>61</v>
+        <v>37</v>
+      </c>
+      <c r="E146" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -3139,15 +3166,15 @@
         <v>27</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D147" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E147" s="5" t="s">
+      <c r="E147" s="8" t="s">
         <v>5</v>
       </c>
       <c r="F147" s="5" t="s">
@@ -3159,19 +3186,19 @@
         <v>28</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D148" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E148" s="5" t="s">
-        <v>35</v>
+      <c r="E148" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -3179,15 +3206,15 @@
         <v>29</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D149" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E149" s="5" t="s">
+      <c r="E149" s="8" t="s">
         <v>6</v>
       </c>
       <c r="F149" s="5" t="s">
@@ -3205,9 +3232,9 @@
         <v>31</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E150" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E150" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F150" s="5" t="s">
@@ -3221,11 +3248,11 @@
       <c r="D151" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E151" s="5" t="s">
-        <v>36</v>
+      <c r="E151" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -3233,9 +3260,9 @@
         <v>29</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E152" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E152" s="8" t="s">
         <v>8</v>
       </c>
       <c r="F152" s="5" t="s">
@@ -3247,9 +3274,9 @@
         <v>31</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E153" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E153" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F153" s="5" t="s">
@@ -3258,9 +3285,9 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D154" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E154" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E154" s="8" t="s">
         <v>42</v>
       </c>
       <c r="F154" s="5" t="s">
@@ -3269,20 +3296,20 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D155" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E155" s="5" t="s">
-        <v>62</v>
+        <v>22</v>
+      </c>
+      <c r="E155" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D156" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E156" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E156" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F156" s="5" t="s">
@@ -3291,21 +3318,21 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D157" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E157" s="5" t="s">
-        <v>37</v>
+        <v>24</v>
+      </c>
+      <c r="E157" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D158" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E158" s="5" t="s">
-        <v>11</v>
+        <v>25</v>
+      </c>
+      <c r="E158" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="F158" s="5" t="s">
         <v>11</v>
@@ -3313,10 +3340,10 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D159" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E159" s="5" t="s">
-        <v>12</v>
+        <v>26</v>
+      </c>
+      <c r="E159" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="F159" s="5" t="s">
         <v>12</v>
@@ -3324,10 +3351,10 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D160" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E160" s="5" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="E160" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="F160" s="5" t="s">
         <v>13</v>
@@ -3335,10 +3362,10 @@
     </row>
     <row r="161" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D161" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E161" s="5" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="E161" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="F161" s="5" t="s">
         <v>14</v>
@@ -3346,10 +3373,10 @@
     </row>
     <row r="162" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D162" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E162" s="5" t="s">
-        <v>15</v>
+        <v>29</v>
+      </c>
+      <c r="E162" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="F162" s="5" t="s">
         <v>15</v>
@@ -3357,141 +3384,141 @@
     </row>
     <row r="163" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D163" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E163" s="5" t="s">
-        <v>16</v>
+        <v>31</v>
+      </c>
+      <c r="E163" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="F163" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="164" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D164" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E164" s="5" t="s">
-        <v>17</v>
+    <row r="164" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D164" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E164" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="F164" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="165" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E165" s="5" t="s">
-        <v>18</v>
+    <row r="165" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D165" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E165" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="F165" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="166" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E166" s="5" t="s">
-        <v>19</v>
+      <c r="E166" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="F166" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="167" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E167" s="5" t="s">
-        <v>20</v>
+      <c r="E167" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="F167" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="168" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E168" s="5" t="s">
-        <v>21</v>
+      <c r="E168" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="F168" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="169" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E169" s="5" t="s">
-        <v>22</v>
+      <c r="E169" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="F169" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="170" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E170" s="5" t="s">
-        <v>23</v>
+      <c r="E170" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="F170" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="171" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E171" s="5" t="s">
-        <v>24</v>
+      <c r="E171" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F171" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="172" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E172" s="5" t="s">
-        <v>25</v>
+      <c r="E172" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F172" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="173" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E173" s="5" t="s">
-        <v>26</v>
+      <c r="E173" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="F173" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="174" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E174" s="5" t="s">
-        <v>27</v>
+      <c r="E174" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="F174" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="175" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E175" s="5" t="s">
-        <v>28</v>
+      <c r="E175" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="F175" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="176" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E176" s="5" t="s">
-        <v>29</v>
+      <c r="E176" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="F176" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E177" s="5" t="s">
-        <v>30</v>
+    <row r="177" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E177" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="F177" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E178" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="F178" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="11" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B179" s="12"/>
       <c r="C179" s="12"/>
@@ -3504,179 +3531,179 @@
         <v>1</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C180" s="7" t="s">
         <v>38</v>
       </c>
       <c r="D180" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F180" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C181" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D181" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E181" s="5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F181" s="5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D182" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E182" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F182" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E183" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F183" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F184" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D185" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E185" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F185" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D186" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E186" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F186" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="D187" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="E187" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F187" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D188" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="F188" s="5" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
@@ -3690,53 +3717,53 @@
         <v>39</v>
       </c>
       <c r="D189" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E189" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E189" s="5" t="s">
-        <v>55</v>
-      </c>
       <c r="F189" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B190" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C190" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D190" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E190" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B190" s="8" t="s">
+      <c r="F190" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="C190" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D190" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E190" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F190" s="5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D191" s="8" t="s">
         <v>39</v>
       </c>
       <c r="E191" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="F191" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
@@ -3750,7 +3777,7 @@
         <v>40</v>
       </c>
       <c r="D192" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E192" s="5" t="s">
         <v>39</v>
@@ -3770,47 +3797,47 @@
         <v>41</v>
       </c>
       <c r="D193" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E193" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F193" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D194" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E194" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F194" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C195" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D195" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E195" s="5" t="s">
         <v>40</v>
@@ -3833,10 +3860,10 @@
         <v>41</v>
       </c>
       <c r="E196" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F196" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
@@ -3850,27 +3877,27 @@
         <v>3</v>
       </c>
       <c r="D197" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E197" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F197" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C198" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D198" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E198" s="5" t="s">
         <v>41</v>
@@ -3893,35 +3920,35 @@
         <v>2</v>
       </c>
       <c r="E199" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F199" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="B200" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C200" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D200" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E200" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F200" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="B201" s="8" t="s">
         <v>6</v>
@@ -3930,7 +3957,7 @@
         <v>6</v>
       </c>
       <c r="D201" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E201" s="5" t="s">
         <v>2</v>
@@ -3941,16 +3968,16 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C202" s="8" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="D202" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E202" s="5" t="s">
         <v>3</v>
@@ -3961,53 +3988,53 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B203" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C203" s="8" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="D203" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E203" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F203" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B204" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C204" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D204" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E204" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F204" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C205" s="8" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="D205" s="8" t="s">
         <v>5</v>
@@ -4021,33 +4048,33 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="C206" s="8" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="D206" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E206" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F206" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C207" s="8" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="D207" s="8" t="s">
         <v>6</v>
@@ -4061,36 +4088,36 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C208" s="8" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="D208" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E208" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F208" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B209" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B209" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="C209" s="8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D209" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E209" s="5" t="s">
         <v>6</v>
@@ -4099,15 +4126,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="210" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B210" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="B210" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="C210" s="8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D210" s="8" t="s">
         <v>8</v>
@@ -4119,29 +4146,29 @@
         <v>7</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A211" s="5" t="s">
-        <v>26</v>
+    <row r="211" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B211" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="C211" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D211" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E211" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F211" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A212" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="C212" s="8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D212" s="8" t="s">
         <v>42</v>
@@ -4153,15 +4180,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="213" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C213" s="9" t="s">
-        <v>28</v>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C213" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="D213" s="8" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="E213" s="5" t="s">
         <v>9</v>
@@ -4170,9 +4194,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C214" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="D214" s="8" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="E214" s="5" t="s">
         <v>42</v>
@@ -4183,13 +4210,13 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D215" s="8" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E215" s="5" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="F215" s="5" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
@@ -4208,15 +4235,15 @@
         <v>13</v>
       </c>
       <c r="E217" s="5" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F217" s="5" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D218" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E218" s="5" t="s">
         <v>11</v>
@@ -4227,7 +4254,7 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D219" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E219" s="5" t="s">
         <v>12</v>
@@ -4238,7 +4265,7 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D220" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E220" s="5" t="s">
         <v>13</v>
@@ -4249,7 +4276,7 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D221" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E221" s="5" t="s">
         <v>14</v>
@@ -4271,7 +4298,7 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D223" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E223" s="5" t="s">
         <v>16</v>
@@ -4282,7 +4309,7 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D224" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E224" s="5" t="s">
         <v>17</v>
@@ -4293,7 +4320,7 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D225" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E225" s="5" t="s">
         <v>18</v>
@@ -4337,7 +4364,7 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D229" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E229" s="5" t="s">
         <v>22</v>
@@ -4423,7 +4450,7 @@
     </row>
     <row r="239" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="11" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B239" s="12"/>
       <c r="C239" s="12"/>
@@ -4436,199 +4463,199 @@
         <v>1</v>
       </c>
       <c r="B240" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C240" s="7" t="s">
         <v>38</v>
       </c>
       <c r="D240" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E240" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F240" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C241" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D241" s="5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E241" s="5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F241" s="5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B242" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C242" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D242" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E242" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F242" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B243" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C243" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D243" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E243" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F243" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B244" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C244" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D244" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E244" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F244" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B245" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C245" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D245" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E245" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F245" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B246" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C246" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D246" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E246" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F246" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B247" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C247" s="8" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="D247" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E247" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F247" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B248" s="8" t="s">
         <v>56</v>
       </c>
       <c r="C248" s="8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D248" s="5" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="E248" s="5" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="F248" s="5" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="8" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B249" s="8" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C249" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D249" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D249" s="5" t="s">
-        <v>55</v>
-      </c>
       <c r="E249" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F249" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
@@ -4636,50 +4663,50 @@
         <v>39</v>
       </c>
       <c r="B250" s="8" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="C250" s="8" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D250" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E250" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F250" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B251" s="8" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C251" s="8" t="s">
         <v>39</v>
       </c>
       <c r="D251" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="E251" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="F251" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B252" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C252" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D252" s="5" t="s">
         <v>39</v>
@@ -4696,50 +4723,50 @@
         <v>40</v>
       </c>
       <c r="B253" s="8" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C253" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D253" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E253" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F253" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="8" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B254" s="8" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="C254" s="8" t="s">
         <v>40</v>
       </c>
       <c r="D254" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E254" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F254" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="8" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B255" s="8" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C255" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D255" s="5" t="s">
         <v>40</v>
@@ -4753,53 +4780,53 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="8" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="B256" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C256" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D256" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E256" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F256" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="8" t="s">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="B257" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C257" s="8" t="s">
         <v>41</v>
       </c>
       <c r="D257" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E257" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F257" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B258" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C258" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D258" s="5" t="s">
         <v>41</v>
@@ -4813,27 +4840,27 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="8" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="B259" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C259" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D259" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E259" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F259" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="8" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="B260" s="8" t="s">
         <v>3</v>
@@ -4842,21 +4869,21 @@
         <v>2</v>
       </c>
       <c r="D260" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E260" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F260" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="8" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="B261" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C261" s="8" t="s">
         <v>3</v>
@@ -4873,13 +4900,13 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="8" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="B262" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C262" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="C262" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="D262" s="5" t="s">
         <v>3</v>
@@ -4893,53 +4920,53 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B263" s="8" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="C263" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D263" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D263" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="E263" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F263" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="8" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="B264" s="8" t="s">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="C264" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D264" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E264" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F264" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B265" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B265" s="8" t="s">
-        <v>5</v>
-      </c>
       <c r="C265" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D265" s="5" t="s">
         <v>4</v>
@@ -4953,33 +4980,33 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="8" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="B266" s="8" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="C266" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D266" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E266" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F266" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B267" s="8" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="C267" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D267" s="5" t="s">
         <v>5</v>
@@ -4993,30 +5020,30 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="8" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="B268" s="8" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C268" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D268" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E268" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F268" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="8" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B269" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C269" s="8" t="s">
         <v>7</v>
@@ -5033,13 +5060,13 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B270" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C270" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="B270" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C270" s="8" t="s">
-        <v>36</v>
       </c>
       <c r="D270" s="5" t="s">
         <v>7</v>
@@ -5053,30 +5080,30 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="8" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="B271" s="8" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="C271" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D271" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E271" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F271" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B272" s="8" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="C272" s="8" t="s">
         <v>9</v>
@@ -5093,10 +5120,10 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B273" s="8" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C273" s="8" t="s">
         <v>42</v>
@@ -5113,7 +5140,7 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B274" s="8" t="s">
         <v>12</v>
@@ -5133,27 +5160,27 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B275" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C275" s="8" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D275" s="5" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="E275" s="5" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="F275" s="5" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B276" s="8" t="s">
         <v>15</v>
@@ -5173,7 +5200,7 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B277" s="8" t="s">
         <v>18</v>
@@ -5182,18 +5209,18 @@
         <v>12</v>
       </c>
       <c r="D277" s="5" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E277" s="5" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F277" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A278" s="9" t="s">
-        <v>28</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A278" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="B278" s="8" t="s">
         <v>20</v>
@@ -5211,9 +5238,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A279" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="B279" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C279" s="8" t="s">
         <v>15</v>
@@ -5230,7 +5260,7 @@
     </row>
     <row r="280" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B280" s="9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C280" s="8" t="s">
         <v>18</v>
@@ -5273,8 +5303,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="283" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C283" s="9" t="s">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C283" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D283" s="5" t="s">
@@ -5287,7 +5317,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C284" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="D284" s="5" t="s">
         <v>17</v>
       </c>

--- a/Schedule Calculator Pro/bin/Debug/Вільні викладачі.xlsx
+++ b/Schedule Calculator Pro/bin/Debug/Вільні викладачі.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Desktop\SCP\Schedule Calculator Pro\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61AB5EFA-EE72-419A-AB8F-CCD1578335F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3718B4DF-463D-49FD-909F-4E898175AA58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14475" yWindow="2805" windowWidth="13995" windowHeight="11505" xr2:uid="{AFD9AC42-F23F-4DC1-95D7-52ADF33435DE}"/>
+    <workbookView xWindow="14805" yWindow="1095" windowWidth="13995" windowHeight="11505" xr2:uid="{D257F762-1FFD-47ED-A451-868E43535093}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="73">
   <si>
     <t>Понеділок</t>
   </si>
@@ -129,24 +123,24 @@
     <t>Шурпан М.М.</t>
   </si>
   <si>
+    <t>Друга пара</t>
+  </si>
+  <si>
+    <t>Білогор Л.А.</t>
+  </si>
+  <si>
+    <t>Камінська Л.Л.</t>
+  </si>
+  <si>
+    <t>Кушнерчук Н.О.</t>
+  </si>
+  <si>
+    <t>Максименко М.О.</t>
+  </si>
+  <si>
     <t>Білоконь С.Ф./</t>
   </si>
   <si>
-    <t>Друга пара</t>
-  </si>
-  <si>
-    <t>Білогор Л.А.</t>
-  </si>
-  <si>
-    <t>Камінська Л.Л.</t>
-  </si>
-  <si>
-    <t>Кушнерчук Н.О.</t>
-  </si>
-  <si>
-    <t>Максименко М.О.</t>
-  </si>
-  <si>
     <t>Третя пара</t>
   </si>
   <si>
@@ -186,67 +180,67 @@
     <t>Конишев В.С.</t>
   </si>
   <si>
+    <t>П'ята пара</t>
+  </si>
+  <si>
+    <t>Білоконь С.Ф.</t>
+  </si>
+  <si>
+    <t>Бондаренко О.П.</t>
+  </si>
+  <si>
+    <t>Варганова Д.О.</t>
+  </si>
+  <si>
+    <t>Вольська Ю.В.</t>
+  </si>
+  <si>
+    <t>Гордійчук О.М.</t>
+  </si>
+  <si>
+    <t>Григор'єв М.Ю.</t>
+  </si>
+  <si>
+    <t>Данильченко А.О.</t>
+  </si>
+  <si>
+    <t>Дишлева Т.І.</t>
+  </si>
+  <si>
+    <t>Журавська К.О.</t>
+  </si>
+  <si>
+    <t>Камінська М.Б.</t>
+  </si>
+  <si>
+    <t>Кочин І.В.</t>
+  </si>
+  <si>
+    <t>Шоста пара</t>
+  </si>
+  <si>
+    <t>Веселянский Я.А.</t>
+  </si>
+  <si>
+    <t>Вівторок</t>
+  </si>
+  <si>
     <t>Веселянский Я.А./</t>
   </si>
   <si>
-    <t>П'ята пара</t>
-  </si>
-  <si>
-    <t>Білоконь С.Ф.</t>
-  </si>
-  <si>
-    <t>Бондаренко О.П.</t>
-  </si>
-  <si>
-    <t>Варганова Д.О.</t>
-  </si>
-  <si>
-    <t>Вольська Ю.В.</t>
-  </si>
-  <si>
-    <t>Гордійчук О.М.</t>
-  </si>
-  <si>
-    <t>Григор'єв М.Ю.</t>
-  </si>
-  <si>
-    <t>Данильченко А.О.</t>
-  </si>
-  <si>
-    <t>Дишлева Т.І.</t>
-  </si>
-  <si>
-    <t>Журавська К.О.</t>
-  </si>
-  <si>
-    <t>Камінська М.Б.</t>
-  </si>
-  <si>
-    <t>Кочин І.В.</t>
-  </si>
-  <si>
-    <t>Шоста пара</t>
-  </si>
-  <si>
-    <t>Веселянский Я.А.</t>
-  </si>
-  <si>
-    <t>Вівторок</t>
+    <t>Антонова Л.І.</t>
+  </si>
+  <si>
+    <t>Середа</t>
+  </si>
+  <si>
+    <t>Журавська К.О./</t>
+  </si>
+  <si>
+    <t>Четвер</t>
   </si>
   <si>
     <t>Антонова Л.І./</t>
-  </si>
-  <si>
-    <t>Антонова Л.І.</t>
-  </si>
-  <si>
-    <t>Середа</t>
-  </si>
-  <si>
-    <t>Журавська К.О./</t>
-  </si>
-  <si>
-    <t>Четвер</t>
   </si>
   <si>
     <t>П'ятниця</t>
@@ -798,7 +792,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5817A8DB-66B6-4477-A484-EDB729722F5E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E3AA49E-87EE-4D64-9A90-7EF83D979788}">
   <dimension ref="A1:F298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -819,11 +813,11 @@
       <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>38</v>
@@ -832,21 +826,21 @@
         <v>45</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>46</v>
@@ -859,27 +853,27 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>39</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -892,14 +886,14 @@
         <v>47</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -912,14 +906,14 @@
         <v>39</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -939,7 +933,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -952,18 +946,18 @@
         <v>48</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>6</v>
@@ -972,34 +966,34 @@
         <v>41</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -1012,14 +1006,14 @@
         <v>2</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1035,11 +1029,11 @@
         <v>39</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -1052,14 +1046,14 @@
         <v>49</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -1072,14 +1066,14 @@
         <v>50</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -1095,11 +1089,11 @@
         <v>40</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -1109,17 +1103,17 @@
         <v>14</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -1135,11 +1129,11 @@
         <v>48</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -1159,7 +1153,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -1169,17 +1163,17 @@
         <v>17</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -1192,14 +1186,14 @@
         <v>8</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -1215,11 +1209,11 @@
         <v>2</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -1239,7 +1233,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -1259,7 +1253,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -1279,7 +1273,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -1299,7 +1293,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -1312,14 +1306,14 @@
         <v>14</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -1335,11 +1329,11 @@
         <v>5</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -1352,14 +1346,14 @@
         <v>16</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="8" t="s">
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -1375,11 +1369,11 @@
         <v>6</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -1399,7 +1393,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
@@ -1412,14 +1406,14 @@
         <v>19</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
@@ -1435,14 +1429,11 @@
         <v>8</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D33" s="8" t="s">
@@ -1455,9 +1446,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
-        <v>32</v>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>22</v>
@@ -1469,7 +1460,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="D35" s="8" t="s">
         <v>23</v>
       </c>
@@ -1480,7 +1474,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D36" s="8" t="s">
         <v>24</v>
       </c>
@@ -1491,7 +1485,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D37" s="8" t="s">
         <v>25</v>
       </c>
@@ -1502,7 +1496,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D38" s="8" t="s">
         <v>26</v>
       </c>
@@ -1513,7 +1507,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D39" s="8" t="s">
         <v>27</v>
       </c>
@@ -1524,7 +1518,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D40" s="8" t="s">
         <v>28</v>
       </c>
@@ -1535,7 +1529,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D41" s="8" t="s">
         <v>29</v>
       </c>
@@ -1546,7 +1540,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D42" s="8" t="s">
         <v>30</v>
       </c>
@@ -1557,8 +1551,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D43" s="8" t="s">
+    <row r="43" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D43" s="9" t="s">
         <v>31</v>
       </c>
       <c r="E43" s="8" t="s">
@@ -1568,10 +1562,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D44" s="8" t="s">
-        <v>51</v>
-      </c>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E44" s="8" t="s">
         <v>17</v>
       </c>
@@ -1579,10 +1570,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D45" s="9" t="s">
-        <v>51</v>
-      </c>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E45" s="8" t="s">
         <v>18</v>
       </c>
@@ -1590,7 +1578,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E46" s="8" t="s">
         <v>19</v>
       </c>
@@ -1598,7 +1586,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E47" s="8" t="s">
         <v>20</v>
       </c>
@@ -1606,7 +1594,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E48" s="8" t="s">
         <v>21</v>
       </c>
@@ -1701,7 +1689,7 @@
     </row>
     <row r="60" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
@@ -1714,7 +1702,7 @@
         <v>1</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>38</v>
@@ -1723,30 +1711,30 @@
         <v>45</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>46</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>46</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -1757,13 +1745,13 @@
         <v>39</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>46</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>46</v>
@@ -1771,22 +1759,22 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -1800,33 +1788,33 @@
         <v>39</v>
       </c>
       <c r="D65" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E65" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E65" s="8" t="s">
-        <v>54</v>
-      </c>
       <c r="F65" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>41</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E66" s="8" t="s">
         <v>47</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -1837,13 +1825,13 @@
         <v>2</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D67" s="8" t="s">
         <v>47</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>47</v>
@@ -1857,16 +1845,16 @@
         <v>3</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -1880,13 +1868,13 @@
         <v>2</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -1900,13 +1888,13 @@
         <v>3</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -1923,15 +1911,15 @@
         <v>39</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>6</v>
@@ -1940,13 +1928,13 @@
         <v>50</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E72" s="8" t="s">
         <v>39</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -1960,10 +1948,10 @@
         <v>4</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>39</v>
@@ -1974,7 +1962,7 @@
         <v>42</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C74" s="8" t="s">
         <v>6</v>
@@ -1983,10 +1971,10 @@
         <v>40</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -1994,19 +1982,19 @@
         <v>10</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="C75" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E75" s="8" t="s">
         <v>40</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2014,16 +2002,16 @@
         <v>44</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="D76" s="8" t="s">
         <v>48</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>40</v>
@@ -2034,10 +2022,10 @@
         <v>11</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="D77" s="8" t="s">
         <v>41</v>
@@ -2046,7 +2034,7 @@
         <v>48</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2054,13 +2042,13 @@
         <v>13</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E78" s="8" t="s">
         <v>41</v>
@@ -2074,16 +2062,16 @@
         <v>17</v>
       </c>
       <c r="B79" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C79" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C79" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="D79" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F79" s="5" t="s">
         <v>41</v>
@@ -2094,19 +2082,19 @@
         <v>18</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>2</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2117,7 +2105,7 @@
         <v>22</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>3</v>
@@ -2126,7 +2114,7 @@
         <v>2</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2137,7 +2125,7 @@
         <v>23</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D82" s="8" t="s">
         <v>49</v>
@@ -2157,7 +2145,7 @@
         <v>24</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D83" s="8" t="s">
         <v>50</v>
@@ -2177,7 +2165,7 @@
         <v>25</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>4</v>
@@ -2197,10 +2185,10 @@
         <v>26</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E85" s="8" t="s">
         <v>4</v>
@@ -2217,13 +2205,13 @@
         <v>27</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D86" s="8" t="s">
         <v>5</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F86" s="5" t="s">
         <v>4</v>
@@ -2237,16 +2225,16 @@
         <v>28</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E87" s="8" t="s">
         <v>5</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -2257,13 +2245,13 @@
         <v>29</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D88" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F88" s="5" t="s">
         <v>5</v>
@@ -2277,7 +2265,7 @@
         <v>30</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D89" s="8" t="s">
         <v>7</v>
@@ -2286,7 +2274,7 @@
         <v>6</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2297,10 +2285,10 @@
         <v>31</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E90" s="8" t="s">
         <v>7</v>
@@ -2310,25 +2298,25 @@
       </c>
     </row>
     <row r="91" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="6" t="s">
+      <c r="A91" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C91" s="8" t="s">
-        <v>30</v>
+      <c r="C91" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F91" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C92" s="8" t="s">
-        <v>31</v>
+      <c r="A92" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="D92" s="8" t="s">
         <v>9</v>
@@ -2337,12 +2325,12 @@
         <v>8</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C93" s="8" t="s">
-        <v>67</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>42</v>
@@ -2354,10 +2342,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C94" s="9" t="s">
-        <v>67</v>
-      </c>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D94" s="8" t="s">
         <v>43</v>
       </c>
@@ -2633,7 +2618,7 @@
     </row>
     <row r="120" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B120" s="12"/>
       <c r="C120" s="12"/>
@@ -2642,11 +2627,11 @@
       <c r="F120" s="13"/>
     </row>
     <row r="121" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="7" t="s">
+      <c r="A121" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B121" s="4" t="s">
-        <v>33</v>
+      <c r="B121" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="C121" s="7" t="s">
         <v>38</v>
@@ -2655,17 +2640,17 @@
         <v>45</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="8" t="s">
+      <c r="A122" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B122" s="5" t="s">
+      <c r="B122" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C122" s="8" t="s">
@@ -2682,71 +2667,71 @@
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B123" s="5" t="s">
-        <v>34</v>
+      <c r="A123" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="8" t="s">
+      <c r="A124" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B124" s="5" t="s">
+      <c r="B124" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C124" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E124" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C125" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D124" s="8" t="s">
+      <c r="D125" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E124" s="8" t="s">
+      <c r="E125" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F124" s="5" t="s">
+      <c r="F125" s="5" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B125" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C125" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D125" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E125" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F125" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="8" t="s">
+      <c r="A126" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B126" s="5" t="s">
-        <v>58</v>
+      <c r="B126" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="C126" s="8" t="s">
         <v>47</v>
@@ -2762,117 +2747,117 @@
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B127" s="5" t="s">
+      <c r="A127" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B127" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C127" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E127" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E128" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E129" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D127" s="8" t="s">
+      <c r="F129" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E127" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F127" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B128" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C128" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D128" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E128" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F128" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="8" t="s">
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B130" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B129" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C129" s="8" t="s">
+      <c r="C130" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="D129" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="E129" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F129" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C130" s="8" t="s">
-        <v>39</v>
       </c>
       <c r="D130" s="8" t="s">
         <v>39</v>
       </c>
       <c r="E130" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B131" s="5" t="s">
-        <v>35</v>
+      <c r="A131" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="C131" s="8" t="s">
         <v>59</v>
       </c>
       <c r="D131" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E131" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F131" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D132" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="E131" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F131" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B132" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C132" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D132" s="8" t="s">
-        <v>60</v>
       </c>
       <c r="E132" s="8" t="s">
         <v>39</v>
@@ -2882,57 +2867,57 @@
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="8" t="s">
+      <c r="A133" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B133" s="5" t="s">
+      <c r="B133" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D133" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E133" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="8" t="s">
+      <c r="A134" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B134" s="5" t="s">
+      <c r="B134" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D134" s="8" t="s">
         <v>41</v>
       </c>
       <c r="E134" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="8" t="s">
+      <c r="A135" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B135" s="5" t="s">
+      <c r="B135" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E135" s="8" t="s">
         <v>40</v>
@@ -2942,34 +2927,34 @@
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="8" t="s">
+      <c r="A136" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B136" s="5" t="s">
+      <c r="B136" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E136" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="8" t="s">
+      <c r="A137" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B137" s="5" t="s">
+      <c r="B137" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D137" s="8" t="s">
         <v>2</v>
@@ -2982,14 +2967,14 @@
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B138" s="5" t="s">
+      <c r="A138" s="5" t="s">
         <v>36</v>
       </c>
+      <c r="B138" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="C138" s="8" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="D138" s="8" t="s">
         <v>3</v>
@@ -3002,54 +2987,54 @@
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="8" t="s">
+      <c r="A139" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B139" s="5" t="s">
+      <c r="B139" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="D139" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E139" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="8" t="s">
+      <c r="A140" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B140" s="5" t="s">
-        <v>37</v>
+      <c r="B140" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D140" s="8" t="s">
         <v>50</v>
       </c>
       <c r="E140" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" s="8" t="s">
+      <c r="A141" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B141" s="5" t="s">
+      <c r="B141" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="D141" s="8" t="s">
         <v>4</v>
@@ -3062,14 +3047,14 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="8" t="s">
+      <c r="A142" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B142" s="5" t="s">
+      <c r="B142" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" s="8" t="s">
         <v>5</v>
@@ -3082,17 +3067,17 @@
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B143" s="5" t="s">
+      <c r="A143" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B143" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C143" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E143" s="8" t="s">
         <v>49</v>
@@ -3102,14 +3087,14 @@
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B144" s="5" t="s">
-        <v>12</v>
+      <c r="A144" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D144" s="8" t="s">
         <v>6</v>
@@ -3122,14 +3107,14 @@
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B145" s="5" t="s">
+      <c r="A145" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C145" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="C145" s="8" t="s">
-        <v>19</v>
       </c>
       <c r="D145" s="8" t="s">
         <v>7</v>
@@ -3142,34 +3127,34 @@
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="8" t="s">
+      <c r="A146" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C146" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D146" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E146" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F146" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B147" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B146" s="5" t="s">
+      <c r="C147" s="8" t="s">
         <v>20</v>
-      </c>
-      <c r="C146" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D146" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E146" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="F146" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B147" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C147" s="8" t="s">
-        <v>23</v>
       </c>
       <c r="D147" s="8" t="s">
         <v>8</v>
@@ -3182,37 +3167,37 @@
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="8" t="s">
+      <c r="A148" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C148" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D148" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E148" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F148" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B149" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B148" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C148" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D148" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E148" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F148" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B149" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="C149" s="8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="E149" s="8" t="s">
         <v>6</v>
@@ -3222,17 +3207,17 @@
       </c>
     </row>
     <row r="150" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="9" t="s">
+      <c r="A150" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B150" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C150" s="9" t="s">
+      <c r="B150" s="9" t="s">
         <v>31</v>
       </c>
+      <c r="C150" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="D150" s="8" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="E150" s="8" t="s">
         <v>7</v>
@@ -3242,22 +3227,22 @@
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B151" s="5" t="s">
-        <v>28</v>
+      <c r="C151" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E151" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B152" s="5" t="s">
-        <v>29</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C152" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="D152" s="8" t="s">
         <v>15</v>
@@ -3269,12 +3254,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B153" s="6" t="s">
-        <v>31</v>
-      </c>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D153" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E153" s="8" t="s">
         <v>9</v>
@@ -3285,7 +3267,7 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D154" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E154" s="8" t="s">
         <v>42</v>
@@ -3296,7 +3278,7 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D155" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E155" s="8" t="s">
         <v>43</v>
@@ -3307,7 +3289,7 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D156" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E156" s="8" t="s">
         <v>10</v>
@@ -3318,7 +3300,7 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D157" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E157" s="8" t="s">
         <v>44</v>
@@ -3329,7 +3311,7 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D158" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E158" s="8" t="s">
         <v>12</v>
@@ -3340,7 +3322,7 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D159" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E159" s="8" t="s">
         <v>13</v>
@@ -3351,7 +3333,7 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D160" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E160" s="8" t="s">
         <v>14</v>
@@ -3362,7 +3344,7 @@
     </row>
     <row r="161" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D161" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E161" s="8" t="s">
         <v>15</v>
@@ -3373,7 +3355,7 @@
     </row>
     <row r="162" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D162" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E162" s="8" t="s">
         <v>16</v>
@@ -3384,7 +3366,7 @@
     </row>
     <row r="163" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D163" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E163" s="8" t="s">
         <v>17</v>
@@ -3395,7 +3377,7 @@
     </row>
     <row r="164" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D164" s="8" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="E164" s="8" t="s">
         <v>18</v>
@@ -3404,9 +3386,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="165" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D165" s="9" t="s">
-        <v>70</v>
+    <row r="165" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D165" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="E165" s="8" t="s">
         <v>19</v>
@@ -3415,7 +3397,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="166" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D166" s="9" t="s">
+        <v>69</v>
+      </c>
       <c r="E166" s="8" t="s">
         <v>20</v>
       </c>
@@ -3518,7 +3503,7 @@
     </row>
     <row r="179" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B179" s="12"/>
       <c r="C179" s="12"/>
@@ -3530,8 +3515,8 @@
       <c r="A180" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B180" s="7" t="s">
-        <v>33</v>
+      <c r="B180" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="C180" s="7" t="s">
         <v>38</v>
@@ -3540,17 +3525,17 @@
         <v>45</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F180" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B181" s="8" t="s">
+      <c r="B181" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C181" s="8" t="s">
@@ -3560,24 +3545,24 @@
         <v>46</v>
       </c>
       <c r="E181" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F181" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B182" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D182" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E182" s="5" t="s">
         <v>46</v>
@@ -3588,49 +3573,49 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B183" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E183" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F183" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B184" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F184" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B185" s="8" t="s">
+      <c r="B185" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C185" s="8" t="s">
@@ -3640,24 +3625,24 @@
         <v>47</v>
       </c>
       <c r="E185" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F185" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B186" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D186" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E186" s="5" t="s">
         <v>47</v>
@@ -3668,116 +3653,116 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B187" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D187" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E187" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F187" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B188" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D188" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F188" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B189" s="8" t="s">
+      <c r="B189" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C189" s="8" t="s">
         <v>39</v>
       </c>
       <c r="D189" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E189" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F189" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B190" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="B190" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D190" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E190" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F190" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B191" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D191" s="8" t="s">
         <v>39</v>
       </c>
       <c r="E191" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F191" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B192" s="8" t="s">
+      <c r="B192" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C192" s="8" t="s">
         <v>40</v>
       </c>
       <c r="D192" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E192" s="5" t="s">
         <v>39</v>
@@ -3790,51 +3775,51 @@
       <c r="A193" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B193" s="8" t="s">
+      <c r="B193" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C193" s="8" t="s">
         <v>41</v>
       </c>
       <c r="D193" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E193" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F193" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B194" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="B194" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D194" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E194" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F194" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B195" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="B195" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="C195" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D195" s="8" t="s">
         <v>48</v>
@@ -3850,7 +3835,7 @@
       <c r="A196" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B196" s="8" t="s">
+      <c r="B196" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C196" s="8" t="s">
@@ -3860,24 +3845,24 @@
         <v>41</v>
       </c>
       <c r="E196" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F196" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B197" s="8" t="s">
+      <c r="B197" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C197" s="8" t="s">
         <v>3</v>
       </c>
       <c r="D197" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E197" s="5" t="s">
         <v>48</v>
@@ -3890,14 +3875,14 @@
       <c r="A198" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B198" s="8" t="s">
+      <c r="B198" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C198" s="8" t="s">
         <v>49</v>
       </c>
       <c r="D198" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E198" s="5" t="s">
         <v>41</v>
@@ -3910,7 +3895,7 @@
       <c r="A199" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B199" s="8" t="s">
+      <c r="B199" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C199" s="8" t="s">
@@ -3920,37 +3905,37 @@
         <v>2</v>
       </c>
       <c r="E199" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F199" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B200" s="8" t="s">
-        <v>36</v>
+      <c r="B200" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="C200" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D200" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E200" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F200" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B201" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B201" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C201" s="8" t="s">
@@ -3970,8 +3955,8 @@
       <c r="A202" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B202" s="8" t="s">
-        <v>37</v>
+      <c r="B202" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="C202" s="8" t="s">
         <v>7</v>
@@ -3990,11 +3975,11 @@
       <c r="A203" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B203" s="8" t="s">
+      <c r="B203" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C203" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D203" s="8" t="s">
         <v>4</v>
@@ -4010,14 +3995,14 @@
       <c r="A204" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B204" s="8" t="s">
+      <c r="B204" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C204" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D204" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E204" s="5" t="s">
         <v>50</v>
@@ -4030,8 +4015,8 @@
       <c r="A205" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B205" s="8" t="s">
-        <v>42</v>
+      <c r="B205" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="C205" s="8" t="s">
         <v>9</v>
@@ -4048,30 +4033,30 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B206" s="8" t="s">
-        <v>44</v>
+        <v>19</v>
+      </c>
+      <c r="B206" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="C206" s="8" t="s">
         <v>42</v>
       </c>
       <c r="D206" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E206" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F206" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B207" s="8" t="s">
-        <v>15</v>
+        <v>23</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="C207" s="8" t="s">
         <v>10</v>
@@ -4088,10 +4073,10 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B208" s="8" t="s">
-        <v>18</v>
+        <v>25</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="C208" s="8" t="s">
         <v>44</v>
@@ -4100,24 +4085,24 @@
         <v>7</v>
       </c>
       <c r="E208" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F208" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B209" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="C209" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D209" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E209" s="5" t="s">
         <v>6</v>
@@ -4128,13 +4113,13 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B210" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="B210" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="C210" s="8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D210" s="8" t="s">
         <v>8</v>
@@ -4146,11 +4131,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="211" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B211" s="9" t="s">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B211" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C211" s="8" t="s">
@@ -4160,13 +4145,19 @@
         <v>9</v>
       </c>
       <c r="E211" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F211" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="C212" s="8" t="s">
         <v>20</v>
       </c>
@@ -4180,8 +4171,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C213" s="8" t="s">
+    <row r="213" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B213" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C213" s="9" t="s">
         <v>24</v>
       </c>
       <c r="D213" s="8" t="s">
@@ -4195,8 +4192,8 @@
       </c>
     </row>
     <row r="214" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C214" s="9" t="s">
-        <v>28</v>
+      <c r="A214" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="D214" s="8" t="s">
         <v>44</v>
@@ -4243,7 +4240,7 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D218" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E218" s="5" t="s">
         <v>11</v>
@@ -4254,7 +4251,7 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D219" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E219" s="5" t="s">
         <v>12</v>
@@ -4265,7 +4262,7 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D220" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E220" s="5" t="s">
         <v>13</v>
@@ -4276,7 +4273,7 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D221" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E221" s="5" t="s">
         <v>14</v>
@@ -4298,7 +4295,7 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D223" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E223" s="5" t="s">
         <v>16</v>
@@ -4309,7 +4306,7 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D224" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E224" s="5" t="s">
         <v>17</v>
@@ -4320,7 +4317,7 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D225" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E225" s="5" t="s">
         <v>18</v>
@@ -4331,7 +4328,7 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D226" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E226" s="5" t="s">
         <v>19</v>
@@ -4342,7 +4339,7 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D227" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E227" s="5" t="s">
         <v>20</v>
@@ -4353,7 +4350,7 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D228" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E228" s="5" t="s">
         <v>21</v>
@@ -4364,7 +4361,7 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D229" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E229" s="5" t="s">
         <v>22</v>
@@ -4463,7 +4460,7 @@
         <v>1</v>
       </c>
       <c r="B240" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C240" s="7" t="s">
         <v>38</v>
@@ -4472,10 +4469,10 @@
         <v>45</v>
       </c>
       <c r="E240" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F240" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
@@ -4489,24 +4486,24 @@
         <v>46</v>
       </c>
       <c r="D241" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E241" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F241" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B242" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C242" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D242" s="5" t="s">
         <v>46</v>
@@ -4520,42 +4517,42 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B243" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C243" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D243" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E243" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F243" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B244" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C244" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D244" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E244" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F244" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
@@ -4569,24 +4566,24 @@
         <v>47</v>
       </c>
       <c r="D245" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E245" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F245" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B246" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C246" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D246" s="5" t="s">
         <v>47</v>
@@ -4600,62 +4597,62 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B247" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C247" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D247" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E247" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F247" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B248" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C248" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D248" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E248" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F248" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B249" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C249" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D249" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E249" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F249" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
@@ -4663,24 +4660,24 @@
         <v>39</v>
       </c>
       <c r="B250" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C250" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D250" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E250" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F250" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B251" s="8" t="s">
         <v>39</v>
@@ -4689,24 +4686,24 @@
         <v>39</v>
       </c>
       <c r="D251" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E251" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F251" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B252" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C252" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D252" s="5" t="s">
         <v>39</v>
@@ -4723,19 +4720,19 @@
         <v>40</v>
       </c>
       <c r="B253" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C253" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D253" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E253" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F253" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
@@ -4749,13 +4746,13 @@
         <v>40</v>
       </c>
       <c r="D254" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E254" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F254" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
@@ -4763,10 +4760,10 @@
         <v>41</v>
       </c>
       <c r="B255" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C255" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D255" s="5" t="s">
         <v>40</v>
@@ -4780,7 +4777,7 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B256" s="8" t="s">
         <v>41</v>
@@ -4789,21 +4786,21 @@
         <v>48</v>
       </c>
       <c r="D256" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E256" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F256" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B257" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C257" s="8" t="s">
         <v>41</v>
@@ -4823,10 +4820,10 @@
         <v>2</v>
       </c>
       <c r="B258" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C258" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D258" s="5" t="s">
         <v>41</v>
@@ -4846,16 +4843,16 @@
         <v>2</v>
       </c>
       <c r="C259" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D259" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E259" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F259" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
@@ -4869,13 +4866,13 @@
         <v>2</v>
       </c>
       <c r="D260" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E260" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F260" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
@@ -4900,7 +4897,7 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B262" s="8" t="s">
         <v>4</v>
@@ -4923,7 +4920,7 @@
         <v>5</v>
       </c>
       <c r="B263" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C263" s="8" t="s">
         <v>50</v>
@@ -4940,7 +4937,7 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B264" s="8" t="s">
         <v>5</v>
@@ -4963,10 +4960,10 @@
         <v>6</v>
       </c>
       <c r="B265" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C265" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D265" s="5" t="s">
         <v>4</v>
@@ -4980,7 +4977,7 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B266" s="8" t="s">
         <v>6</v>
@@ -4989,13 +4986,13 @@
         <v>5</v>
       </c>
       <c r="D266" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E266" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F266" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
@@ -5003,10 +5000,10 @@
         <v>8</v>
       </c>
       <c r="B267" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C267" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D267" s="5" t="s">
         <v>5</v>
@@ -5029,13 +5026,13 @@
         <v>6</v>
       </c>
       <c r="D268" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E268" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F268" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
@@ -5066,7 +5063,7 @@
         <v>42</v>
       </c>
       <c r="C270" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D270" s="5" t="s">
         <v>7</v>
@@ -5089,13 +5086,13 @@
         <v>8</v>
       </c>
       <c r="D271" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E271" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F271" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
@@ -5160,7 +5157,7 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B275" s="8" t="s">
         <v>13</v>
@@ -5180,7 +5177,7 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B276" s="8" t="s">
         <v>15</v>
@@ -5200,7 +5197,7 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B277" s="8" t="s">
         <v>18</v>
@@ -5220,7 +5217,7 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B278" s="8" t="s">
         <v>20</v>
@@ -5238,12 +5235,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="279" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A279" s="9" t="s">
-        <v>28</v>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A279" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="B279" s="8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C279" s="8" t="s">
         <v>15</v>
@@ -5259,8 +5256,11 @@
       </c>
     </row>
     <row r="280" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B280" s="9" t="s">
-        <v>24</v>
+      <c r="A280" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B280" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="C280" s="8" t="s">
         <v>18</v>
@@ -5275,7 +5275,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B281" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="C281" s="8" t="s">
         <v>20</v>
       </c>
@@ -5291,7 +5294,7 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C282" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D282" s="5" t="s">
         <v>15</v>
@@ -5305,7 +5308,7 @@
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C283" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D283" s="5" t="s">
         <v>16</v>
@@ -5319,7 +5322,7 @@
     </row>
     <row r="284" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C284" s="9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D284" s="5" t="s">
         <v>17</v>
